--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmyers\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EFE380BE-B2A7-4F7C-ADDC-462B248D946A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1F9822AC-5DDB-4CA4-A664-983A8488F4F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="0" windowWidth="22695" windowHeight="8745" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="2835" yWindow="0" windowWidth="22695" windowHeight="8745" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
@@ -61,16 +61,16 @@
     <t>config1</t>
   </si>
   <si>
-    <t>Start Row (inclusive)</t>
-  </si>
-  <si>
-    <t>Stop Row (inclusive)</t>
-  </si>
-  <si>
     <t>Sim Time (seconds)</t>
   </si>
   <si>
     <t>Run ID</t>
+  </si>
+  <si>
+    <t>Start Run ID (inclusive)</t>
+  </si>
+  <si>
+    <t>Stop Run ID (inclusive)</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98028C58-071A-4E37-9E82-3C2AA620C0F8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -436,15 +438,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -452,7 +454,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -467,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD319FC3-F5A0-442C-9F04-E5E568694E63}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -483,7 +485,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmyers\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1F9822AC-5DDB-4CA4-A664-983A8488F4F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B61117-199A-4DB2-98EC-2AD4CC4C855C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="0" windowWidth="22695" windowHeight="8745" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="2832" yWindow="0" windowWidth="22692" windowHeight="8748" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Visibility</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>Stop Run ID (inclusive)</t>
+  </si>
+  <si>
+    <t>config2</t>
+  </si>
+  <si>
+    <t>config3</t>
+  </si>
+  <si>
+    <t>config4</t>
+  </si>
+  <si>
+    <t>config5</t>
   </si>
 </sst>
 </file>
@@ -428,15 +440,15 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -444,15 +456,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -467,23 +479,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD319FC3-F5A0-442C-9F04-E5E568694E63}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -518,12 +532,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -553,15 +567,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>0.9</v>
@@ -585,10 +599,10 @@
         <v>500</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -596,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0.8</v>
@@ -620,18 +634,18 @@
         <v>500</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>0.7</v>
@@ -655,18 +669,18 @@
         <v>500</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>0.6</v>
@@ -690,357 +704,7 @@
         <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>270</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>500</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>0.9</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>270</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>500</v>
-      </c>
-      <c r="K8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>0.8</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>270</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>500</v>
-      </c>
-      <c r="K9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>0.7</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>270</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>500</v>
-      </c>
-      <c r="K10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>0.6</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>270</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11">
-        <v>500</v>
-      </c>
-      <c r="K11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>270</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12">
-        <v>500</v>
-      </c>
-      <c r="K12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>0.9</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>270</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
-      <c r="J13">
-        <v>500</v>
-      </c>
-      <c r="K13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>0.8</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>270</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>500</v>
-      </c>
-      <c r="K14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>0.7</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>270</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>500</v>
-      </c>
-      <c r="K15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>0.6</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>270</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="J16">
-        <v>500</v>
-      </c>
-      <c r="K16" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmyers\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B61117-199A-4DB2-98EC-2AD4CC4C855C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1F9822AC-5DDB-4CA4-A664-983A8488F4F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="0" windowWidth="22692" windowHeight="8748" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="2835" yWindow="0" windowWidth="22695" windowHeight="8745" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Visibility</t>
   </si>
@@ -71,18 +71,6 @@
   </si>
   <si>
     <t>Stop Run ID (inclusive)</t>
-  </si>
-  <si>
-    <t>config2</t>
-  </si>
-  <si>
-    <t>config3</t>
-  </si>
-  <si>
-    <t>config4</t>
-  </si>
-  <si>
-    <t>config5</t>
   </si>
 </sst>
 </file>
@@ -440,15 +428,15 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -456,15 +444,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -479,25 +467,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD319FC3-F5A0-442C-9F04-E5E568694E63}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -532,12 +518,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -567,15 +553,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
         <v>0</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
       </c>
       <c r="D3">
         <v>0.9</v>
@@ -599,10 +585,10 @@
         <v>500</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -610,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0.8</v>
@@ -634,18 +620,18 @@
         <v>500</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0.7</v>
@@ -669,18 +655,18 @@
         <v>500</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
         <v>0</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
       </c>
       <c r="D6">
         <v>0.6</v>
@@ -704,7 +690,357 @@
         <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>270</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>500</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>270</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>500</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0.8</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>270</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>500</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0.7</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>270</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>500</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0.6</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>270</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>500</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>270</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>500</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>0.9</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>270</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>500</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>0.8</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>270</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>500</v>
+      </c>
+      <c r="K14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>0.7</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>270</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>500</v>
+      </c>
+      <c r="K15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>0.6</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>270</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>500</v>
+      </c>
+      <c r="K16" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmyers\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1F9822AC-5DDB-4CA4-A664-983A8488F4F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62E392C-F1A8-417C-8EC9-D3152CFC431B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="0" windowWidth="22695" windowHeight="8745" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="2832" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Visibility</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>Stop Run ID (inclusive)</t>
+  </si>
+  <si>
+    <t>config2</t>
+  </si>
+  <si>
+    <t>config3</t>
+  </si>
+  <si>
+    <t>config4</t>
+  </si>
+  <si>
+    <t>config5</t>
   </si>
 </sst>
 </file>
@@ -427,16 +439,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98028C58-071A-4E37-9E82-3C2AA620C0F8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -444,7 +456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -452,7 +464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -469,21 +481,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD319FC3-F5A0-442C-9F04-E5E568694E63}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -518,7 +532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -553,12 +567,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -585,15 +599,15 @@
         <v>500</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -620,15 +634,15 @@
         <v>500</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -655,15 +669,15 @@
         <v>500</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -690,10 +704,10 @@
         <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -728,7 +742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -736,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>0.9</v>
@@ -760,10 +774,10 @@
         <v>500</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -771,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>0.8</v>
@@ -795,10 +809,10 @@
         <v>500</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -806,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>0.7</v>
@@ -830,10 +844,10 @@
         <v>500</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -841,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <v>0.6</v>
@@ -865,18 +879,18 @@
         <v>500</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -903,15 +917,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>0.9</v>
@@ -935,18 +949,18 @@
         <v>500</v>
       </c>
       <c r="K13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>0.8</v>
@@ -970,18 +984,18 @@
         <v>500</v>
       </c>
       <c r="K14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>0.7</v>
@@ -1005,18 +1019,18 @@
         <v>500</v>
       </c>
       <c r="K15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D16">
         <v>0.6</v>
@@ -1040,7 +1054,7 @@
         <v>500</v>
       </c>
       <c r="K16" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62E392C-F1A8-417C-8EC9-D3152CFC431B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4938E9FB-14D5-4991-AC77-2F7480949335}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="2832" yWindow="0" windowWidth="22692" windowHeight="8748" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98028C58-071A-4E37-9E82-3C2AA620C0F8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,7 +453,7 @@
         <v>13</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -461,7 +461,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -469,7 +469,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD319FC3-F5A0-442C-9F04-E5E568694E63}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="A9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4938E9FB-14D5-4991-AC77-2F7480949335}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E943F9-E6A8-4DC4-BC46-84E981F9C6A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="0" windowWidth="22692" windowHeight="8748" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="2832" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98028C58-071A-4E37-9E82-3C2AA620C0F8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,7 +453,7 @@
         <v>13</v>
       </c>
       <c r="B1">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -461,7 +461,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -469,7 +469,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD319FC3-F5A0-442C-9F04-E5E568694E63}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="A9:K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -858,7 +858,7 @@
         <v>50</v>
       </c>
       <c r="D11">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1033,7 +1033,7 @@
         <v>25</v>
       </c>
       <c r="D16">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>3</v>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E943F9-E6A8-4DC4-BC46-84E981F9C6A9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6426EAF1-90E2-4F27-90C3-B7BD745C9C0A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="2832" yWindow="0" windowWidth="22692" windowHeight="8748" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
     <sheet name="params" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -439,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98028C58-071A-4E37-9E82-3C2AA620C0F8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -469,7 +469,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -481,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD319FC3-F5A0-442C-9F04-E5E568694E63}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmyers\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1F9822AC-5DDB-4CA4-A664-983A8488F4F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{688A2881-744C-4D9B-B572-952F4401DF18}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="0" windowWidth="22695" windowHeight="8745" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="3780" yWindow="0" windowWidth="22695" windowHeight="8745" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Visibility</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Stop Run ID (inclusive)</t>
+  </si>
+  <si>
+    <t>config5</t>
   </si>
 </sst>
 </file>
@@ -427,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98028C58-071A-4E37-9E82-3C2AA620C0F8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +452,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,7 +472,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD319FC3-F5A0-442C-9F04-E5E568694E63}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -529,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -550,7 +555,7 @@
         <v>500</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6426EAF1-90E2-4F27-90C3-B7BD745C9C0A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62C9CEE-9910-43FE-B301-FCCBAA491597}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2832" yWindow="0" windowWidth="22692" windowHeight="8748" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
@@ -453,7 +453,7 @@
         <v>13</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -461,7 +461,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -469,7 +469,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -482,7 +482,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>3</v>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62C9CEE-9910-43FE-B301-FCCBAA491597}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EC6702-261B-4E8D-BDAE-ECD4054CD1EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2832" yWindow="0" windowWidth="22692" windowHeight="8748" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
@@ -453,7 +453,7 @@
         <v>13</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -461,7 +461,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -469,7 +469,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EC6702-261B-4E8D-BDAE-ECD4054CD1EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045D7FBE-BD6D-47ED-B774-D569222BF2EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="0" windowWidth="22692" windowHeight="8748" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="2832" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
@@ -439,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98028C58-071A-4E37-9E82-3C2AA620C0F8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -481,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD319FC3-F5A0-442C-9F04-E5E568694E63}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045D7FBE-BD6D-47ED-B774-D569222BF2EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9012600A-5FEA-4454-A369-6CB33386F83B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="2832" yWindow="0" windowWidth="22692" windowHeight="8748" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
@@ -439,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98028C58-071A-4E37-9E82-3C2AA620C0F8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -453,7 +453,7 @@
         <v>13</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -461,7 +461,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -469,7 +469,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD319FC3-F5A0-442C-9F04-E5E568694E63}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>3</v>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9012600A-5FEA-4454-A369-6CB33386F83B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5411BE5-CF36-4C6E-982A-7CD81721CBE8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="0" windowWidth="22692" windowHeight="8748" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="2832" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
@@ -439,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98028C58-071A-4E37-9E82-3C2AA620C0F8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -469,7 +469,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD319FC3-F5A0-442C-9F04-E5E568694E63}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -596,7 +596,7 @@
         <v>5</v>
       </c>
       <c r="J3">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
@@ -631,7 +631,7 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -666,7 +666,7 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
@@ -701,7 +701,7 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K6" t="s">
         <v>18</v>
@@ -736,7 +736,7 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -771,7 +771,7 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K8" t="s">
         <v>15</v>
@@ -806,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -841,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K10" t="s">
         <v>17</v>
@@ -876,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K11" t="s">
         <v>18</v>
@@ -911,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="J12">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K12" t="s">
         <v>10</v>
@@ -946,7 +946,7 @@
         <v>5</v>
       </c>
       <c r="J13">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K13" t="s">
         <v>15</v>
@@ -981,7 +981,7 @@
         <v>5</v>
       </c>
       <c r="J14">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K14" t="s">
         <v>16</v>
@@ -1016,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K15" t="s">
         <v>17</v>
@@ -1051,7 +1051,7 @@
         <v>5</v>
       </c>
       <c r="J16">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K16" t="s">
         <v>18</v>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmyers\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{688A2881-744C-4D9B-B572-952F4401DF18}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF71612-3BA7-47DF-8134-1DC8ED2E56AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="0" windowWidth="22695" windowHeight="8745" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="3780" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
@@ -434,12 +434,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -447,7 +447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -473,22 +473,22 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -523,7 +523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -558,7 +558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -593,7 +593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -628,7 +628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -663,7 +663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -698,7 +698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -733,7 +733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -768,7 +768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -803,7 +803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -838,7 +838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -873,7 +873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -908,7 +908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -943,7 +943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -978,7 +978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmyers\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{688A2881-744C-4D9B-B572-952F4401DF18}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5411BE5-CF36-4C6E-982A-7CD81721CBE8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="0" windowWidth="22695" windowHeight="8745" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="2832" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
     <sheet name="params" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Visibility</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>Stop Run ID (inclusive)</t>
+  </si>
+  <si>
+    <t>config2</t>
+  </si>
+  <si>
+    <t>config3</t>
+  </si>
+  <si>
+    <t>config4</t>
   </si>
   <si>
     <t>config5</t>
@@ -434,12 +443,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -447,20 +456,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -473,22 +482,22 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J2" sqref="J2:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -523,7 +532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -534,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -552,18 +561,18 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -587,18 +596,18 @@
         <v>5</v>
       </c>
       <c r="J3">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -622,18 +631,18 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -657,24 +666,24 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -692,13 +701,13 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -727,13 +736,13 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -741,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>0.9</v>
@@ -762,13 +771,13 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -776,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>0.8</v>
@@ -797,13 +806,13 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -811,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>0.7</v>
@@ -832,13 +841,13 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -846,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -867,21 +876,21 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -902,21 +911,21 @@
         <v>5</v>
       </c>
       <c r="J12">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>0.9</v>
@@ -937,21 +946,21 @@
         <v>5</v>
       </c>
       <c r="J13">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>0.8</v>
@@ -972,21 +981,21 @@
         <v>5</v>
       </c>
       <c r="J14">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>0.7</v>
@@ -1007,24 +1016,24 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1042,10 +1051,10 @@
         <v>5</v>
       </c>
       <c r="J16">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K16" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmyers\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5411BE5-CF36-4C6E-982A-7CD81721CBE8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B10C88B5-93E7-4164-A8CA-16712C801F8B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="3780" yWindow="0" windowWidth="22695" windowHeight="8745" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
     <sheet name="params" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -440,15 +440,15 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -456,20 +456,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -482,22 +482,22 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -532,7 +532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>270</v>
@@ -567,7 +567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -602,7 +602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -637,7 +637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -672,7 +672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -707,7 +707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -742,7 +742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -777,7 +777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -812,7 +812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -847,7 +847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -882,7 +882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -952,7 +952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -987,7 +987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5411BE5-CF36-4C6E-982A-7CD81721CBE8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1F8B59-81A6-4B45-9BFB-8C959F300785}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="3780" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
     <sheet name="params" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,6 +73,9 @@
     <t>Stop Run ID (inclusive)</t>
   </si>
   <si>
+    <t>config5</t>
+  </si>
+  <si>
     <t>config2</t>
   </si>
   <si>
@@ -80,9 +83,6 @@
   </si>
   <si>
     <t>config4</t>
-  </si>
-  <si>
-    <t>config5</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J16"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -596,10 +596,10 @@
         <v>5</v>
       </c>
       <c r="J3">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -631,10 +631,10 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -666,10 +666,10 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -701,10 +701,10 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -712,7 +712,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -747,10 +747,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>0.9</v>
@@ -771,10 +771,10 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -782,10 +782,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>0.8</v>
@@ -806,10 +806,10 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -817,10 +817,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>0.7</v>
@@ -841,10 +841,10 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -852,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -876,10 +876,10 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -890,7 +890,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -911,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="J12">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s">
         <v>10</v>
@@ -922,7 +922,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -946,10 +946,10 @@
         <v>5</v>
       </c>
       <c r="J13">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -957,10 +957,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>0.8</v>
@@ -981,10 +981,10 @@
         <v>5</v>
       </c>
       <c r="J14">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -992,10 +992,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>0.7</v>
@@ -1016,10 +1016,10 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1027,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1051,10 +1051,10 @@
         <v>5</v>
       </c>
       <c r="J16">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1F8B59-81A6-4B45-9BFB-8C959F300785}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB6D82D-CC60-4D0A-8141-E1F27CB42EF5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3780" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +469,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -482,7 +482,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB6D82D-CC60-4D0A-8141-E1F27CB42EF5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B655B29-8F41-46E1-85F9-372E4E8E4119}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="3780" yWindow="0" windowWidth="22692" windowHeight="8748" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98028C58-071A-4E37-9E82-3C2AA620C0F8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,7 +461,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -481,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD319FC3-F5A0-442C-9F04-E5E568694E63}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF71612-3BA7-47DF-8134-1DC8ED2E56AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5E24BE-CE72-46DE-90FA-DE4CA681BEC2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="3780" yWindow="0" windowWidth="22692" windowHeight="8748" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98028C58-071A-4E37-9E82-3C2AA620C0F8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -472,7 +472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD319FC3-F5A0-442C-9F04-E5E568694E63}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5E24BE-CE72-46DE-90FA-DE4CA681BEC2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1422A7FA-B8ED-4646-9242-6DD3A4F31798}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="0" windowWidth="22692" windowHeight="8748" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="3780" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
@@ -430,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98028C58-071A-4E37-9E82-3C2AA620C0F8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -452,7 +452,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -460,7 +460,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD319FC3-F5A0-442C-9F04-E5E568694E63}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="J3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -622,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -657,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
@@ -692,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -727,7 +727,7 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -762,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -867,7 +867,7 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K11" t="s">
         <v>10</v>
@@ -902,7 +902,7 @@
         <v>5</v>
       </c>
       <c r="J12">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K12" t="s">
         <v>10</v>
@@ -937,7 +937,7 @@
         <v>5</v>
       </c>
       <c r="J13">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K13" t="s">
         <v>10</v>
@@ -972,7 +972,7 @@
         <v>5</v>
       </c>
       <c r="J14">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K14" t="s">
         <v>10</v>
@@ -1007,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K15" t="s">
         <v>10</v>
@@ -1042,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="J16">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K16" t="s">
         <v>10</v>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenr\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1422A7FA-B8ED-4646-9242-6DD3A4F31798}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5151C0E6-1E09-464C-9842-1014EB5E935C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3780" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="runs" sheetId="2" r:id="rId1"/>
     <sheet name="params" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -460,7 +460,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -473,7 +473,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="J2" sqref="J2:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="J3">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -622,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -657,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
@@ -692,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -727,7 +727,7 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -762,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -867,7 +867,7 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K11" t="s">
         <v>10</v>
@@ -902,7 +902,7 @@
         <v>5</v>
       </c>
       <c r="J12">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K12" t="s">
         <v>10</v>
@@ -937,7 +937,7 @@
         <v>5</v>
       </c>
       <c r="J13">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K13" t="s">
         <v>10</v>
@@ -972,7 +972,7 @@
         <v>5</v>
       </c>
       <c r="J14">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K14" t="s">
         <v>10</v>
@@ -1007,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K15" t="s">
         <v>10</v>
@@ -1042,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="J16">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K16" t="s">
         <v>10</v>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1422A7FA-B8ED-4646-9242-6DD3A4F31798}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6036C76-7505-4043-B22A-60FA194AFD21}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="3780" yWindow="0" windowWidth="22692" windowHeight="8748" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
@@ -430,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98028C58-071A-4E37-9E82-3C2AA620C0F8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -452,7 +452,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -460,7 +460,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD319FC3-F5A0-442C-9F04-E5E568694E63}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="J3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -622,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -657,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
@@ -692,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -727,7 +727,7 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -762,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -867,7 +867,7 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K11" t="s">
         <v>10</v>
@@ -902,7 +902,7 @@
         <v>5</v>
       </c>
       <c r="J12">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K12" t="s">
         <v>10</v>
@@ -937,7 +937,7 @@
         <v>5</v>
       </c>
       <c r="J13">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K13" t="s">
         <v>10</v>
@@ -972,7 +972,7 @@
         <v>5</v>
       </c>
       <c r="J14">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K14" t="s">
         <v>10</v>
@@ -1007,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K15" t="s">
         <v>10</v>
@@ -1042,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="J16">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K16" t="s">
         <v>10</v>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6036C76-7505-4043-B22A-60FA194AFD21}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0308B7-6C7E-4ABE-9222-FC9CACB95DA4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="0" windowWidth="22692" windowHeight="8748" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="3780" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
@@ -430,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98028C58-071A-4E37-9E82-3C2AA620C0F8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD319FC3-F5A0-442C-9F04-E5E568694E63}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>3</v>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenr\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5151C0E6-1E09-464C-9842-1014EB5E935C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFBE706-BCC2-42AD-AA28-D23E7DF58BB3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3780" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -473,7 +473,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710E8728-40D0-4434-A287-CEFF8F65CFDE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21C1ECC-1838-47FC-B9A3-F467398B4D8C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7668" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7668" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
@@ -478,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98028C58-071A-4E37-9E82-3C2AA620C0F8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -492,7 +492,7 @@
         <v>13</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -500,7 +500,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -508,7 +508,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD319FC3-F5A0-442C-9F04-E5E568694E63}">
   <dimension ref="A1:L1267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1015" workbookViewId="0">
-      <selection activeCell="K759" sqref="K759"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E38">
         <v>3</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E41">
         <v>3</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E46">
         <v>3</v>

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E5DC0D-45F9-4CFA-B502-20BB90C29694}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C04BBF-6425-423E-BD4F-FD41D9E543B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7668" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7668" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="2" r:id="rId1"/>
@@ -478,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98028C58-071A-4E37-9E82-3C2AA620C0F8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -491,24 +491,18 @@
       <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -520,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD319FC3-F5A0-442C-9F04-E5E568694E63}">
   <dimension ref="A1:L1267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,7 +597,7 @@
         <v>500</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -638,7 +632,7 @@
         <v>500</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -673,7 +667,7 @@
         <v>500</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -708,7 +702,7 @@
         <v>500</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -743,7 +737,7 @@
         <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -778,7 +772,7 @@
         <v>500</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -813,7 +807,7 @@
         <v>500</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -848,7 +842,7 @@
         <v>500</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -883,7 +877,7 @@
         <v>500</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -918,7 +912,7 @@
         <v>500</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -953,7 +947,7 @@
         <v>500</v>
       </c>
       <c r="K12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -988,7 +982,7 @@
         <v>500</v>
       </c>
       <c r="K13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1023,7 +1017,7 @@
         <v>500</v>
       </c>
       <c r="K14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1058,7 +1052,7 @@
         <v>500</v>
       </c>
       <c r="K15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1093,7 +1087,7 @@
         <v>500</v>
       </c>
       <c r="K16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -11637,7 +11631,7 @@
         <v>500</v>
       </c>
       <c r="K317" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L317" s="2" t="s">
         <v>23</v>
@@ -11675,7 +11669,7 @@
         <v>500</v>
       </c>
       <c r="K318" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.3">
@@ -11710,7 +11704,7 @@
         <v>500</v>
       </c>
       <c r="K319" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.3">
@@ -11745,7 +11739,7 @@
         <v>500</v>
       </c>
       <c r="K320" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
@@ -11780,7 +11774,7 @@
         <v>500</v>
       </c>
       <c r="K321" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
@@ -11815,7 +11809,7 @@
         <v>500</v>
       </c>
       <c r="K322" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
@@ -11850,7 +11844,7 @@
         <v>500</v>
       </c>
       <c r="K323" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
@@ -11885,7 +11879,7 @@
         <v>500</v>
       </c>
       <c r="K324" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.3">
@@ -11920,7 +11914,7 @@
         <v>500</v>
       </c>
       <c r="K325" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.3">
@@ -11955,7 +11949,7 @@
         <v>500</v>
       </c>
       <c r="K326" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
@@ -11990,7 +11984,7 @@
         <v>500</v>
       </c>
       <c r="K327" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
@@ -12025,7 +12019,7 @@
         <v>500</v>
       </c>
       <c r="K328" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
@@ -12060,7 +12054,7 @@
         <v>500</v>
       </c>
       <c r="K329" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
@@ -12095,7 +12089,7 @@
         <v>500</v>
       </c>
       <c r="K330" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
@@ -12130,7 +12124,7 @@
         <v>500</v>
       </c>
       <c r="K331" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.3">
@@ -12165,7 +12159,7 @@
         <v>500</v>
       </c>
       <c r="K332" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.3">
@@ -12200,7 +12194,7 @@
         <v>500</v>
       </c>
       <c r="K333" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
@@ -12235,7 +12229,7 @@
         <v>500</v>
       </c>
       <c r="K334" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.3">
@@ -12270,7 +12264,7 @@
         <v>500</v>
       </c>
       <c r="K335" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.3">
@@ -12305,7 +12299,7 @@
         <v>500</v>
       </c>
       <c r="K336" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.3">
@@ -12340,7 +12334,7 @@
         <v>500</v>
       </c>
       <c r="K337" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
@@ -12375,7 +12369,7 @@
         <v>500</v>
       </c>
       <c r="K338" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.3">
@@ -12410,7 +12404,7 @@
         <v>500</v>
       </c>
       <c r="K339" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
@@ -12445,7 +12439,7 @@
         <v>500</v>
       </c>
       <c r="K340" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.3">
@@ -12480,7 +12474,7 @@
         <v>500</v>
       </c>
       <c r="K341" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
@@ -12515,7 +12509,7 @@
         <v>500</v>
       </c>
       <c r="K342" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
@@ -12550,7 +12544,7 @@
         <v>500</v>
       </c>
       <c r="K343" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
@@ -12585,7 +12579,7 @@
         <v>500</v>
       </c>
       <c r="K344" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
@@ -12620,7 +12614,7 @@
         <v>500</v>
       </c>
       <c r="K345" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
@@ -12655,7 +12649,7 @@
         <v>500</v>
       </c>
       <c r="K346" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
@@ -12690,7 +12684,7 @@
         <v>500</v>
       </c>
       <c r="K347" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
@@ -12725,7 +12719,7 @@
         <v>500</v>
       </c>
       <c r="K348" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
@@ -12760,7 +12754,7 @@
         <v>500</v>
       </c>
       <c r="K349" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
@@ -12795,7 +12789,7 @@
         <v>500</v>
       </c>
       <c r="K350" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
@@ -12830,7 +12824,7 @@
         <v>500</v>
       </c>
       <c r="K351" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
@@ -12865,7 +12859,7 @@
         <v>500</v>
       </c>
       <c r="K352" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
@@ -12900,7 +12894,7 @@
         <v>500</v>
       </c>
       <c r="K353" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
@@ -12935,7 +12929,7 @@
         <v>500</v>
       </c>
       <c r="K354" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
@@ -12970,7 +12964,7 @@
         <v>500</v>
       </c>
       <c r="K355" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
@@ -13005,7 +12999,7 @@
         <v>500</v>
       </c>
       <c r="K356" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.3">
@@ -13040,7 +13034,7 @@
         <v>500</v>
       </c>
       <c r="K357" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
@@ -13075,7 +13069,7 @@
         <v>500</v>
       </c>
       <c r="K358" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
@@ -13110,7 +13104,7 @@
         <v>500</v>
       </c>
       <c r="K359" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
@@ -13145,7 +13139,7 @@
         <v>500</v>
       </c>
       <c r="K360" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
@@ -13180,7 +13174,7 @@
         <v>500</v>
       </c>
       <c r="K361" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
@@ -13215,7 +13209,7 @@
         <v>500</v>
       </c>
       <c r="K362" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
@@ -13250,7 +13244,7 @@
         <v>500</v>
       </c>
       <c r="K363" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
@@ -13285,7 +13279,7 @@
         <v>500</v>
       </c>
       <c r="K364" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
@@ -13320,7 +13314,7 @@
         <v>500</v>
       </c>
       <c r="K365" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
@@ -13355,7 +13349,7 @@
         <v>500</v>
       </c>
       <c r="K366" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
@@ -13390,7 +13384,7 @@
         <v>500</v>
       </c>
       <c r="K367" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
@@ -13425,7 +13419,7 @@
         <v>500</v>
       </c>
       <c r="K368" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.3">
@@ -13460,7 +13454,7 @@
         <v>500</v>
       </c>
       <c r="K369" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.3">
@@ -13495,7 +13489,7 @@
         <v>500</v>
       </c>
       <c r="K370" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.3">
@@ -13530,7 +13524,7 @@
         <v>500</v>
       </c>
       <c r="K371" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
@@ -13565,7 +13559,7 @@
         <v>500</v>
       </c>
       <c r="K372" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.3">
@@ -13600,7 +13594,7 @@
         <v>500</v>
       </c>
       <c r="K373" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
@@ -13635,7 +13629,7 @@
         <v>500</v>
       </c>
       <c r="K374" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
@@ -13670,7 +13664,7 @@
         <v>500</v>
       </c>
       <c r="K375" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.3">
@@ -13705,7 +13699,7 @@
         <v>500</v>
       </c>
       <c r="K376" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
@@ -13740,7 +13734,7 @@
         <v>500</v>
       </c>
       <c r="K377" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
@@ -13775,7 +13769,7 @@
         <v>500</v>
       </c>
       <c r="K378" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.3">
@@ -13810,7 +13804,7 @@
         <v>500</v>
       </c>
       <c r="K379" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.3">
@@ -13845,7 +13839,7 @@
         <v>500</v>
       </c>
       <c r="K380" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.3">
@@ -13880,7 +13874,7 @@
         <v>500</v>
       </c>
       <c r="K381" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.3">
@@ -13915,7 +13909,7 @@
         <v>500</v>
       </c>
       <c r="K382" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.3">
@@ -13950,7 +13944,7 @@
         <v>500</v>
       </c>
       <c r="K383" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.3">
@@ -13985,7 +13979,7 @@
         <v>500</v>
       </c>
       <c r="K384" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.3">
@@ -14020,7 +14014,7 @@
         <v>500</v>
       </c>
       <c r="K385" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.3">
@@ -14055,7 +14049,7 @@
         <v>500</v>
       </c>
       <c r="K386" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.3">
@@ -14090,7 +14084,7 @@
         <v>500</v>
       </c>
       <c r="K387" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.3">
@@ -14125,7 +14119,7 @@
         <v>500</v>
       </c>
       <c r="K388" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.3">
@@ -14160,7 +14154,7 @@
         <v>500</v>
       </c>
       <c r="K389" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.3">
@@ -14195,7 +14189,7 @@
         <v>500</v>
       </c>
       <c r="K390" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.3">
@@ -14230,7 +14224,7 @@
         <v>500</v>
       </c>
       <c r="K391" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.3">
@@ -14265,7 +14259,7 @@
         <v>500</v>
       </c>
       <c r="K392" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.3">
@@ -14300,7 +14294,7 @@
         <v>500</v>
       </c>
       <c r="K393" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.3">
@@ -14335,7 +14329,7 @@
         <v>500</v>
       </c>
       <c r="K394" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.3">
@@ -14370,7 +14364,7 @@
         <v>500</v>
       </c>
       <c r="K395" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.3">
@@ -14405,7 +14399,7 @@
         <v>500</v>
       </c>
       <c r="K396" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.3">
@@ -14440,7 +14434,7 @@
         <v>500</v>
       </c>
       <c r="K397" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.3">
@@ -14475,7 +14469,7 @@
         <v>500</v>
       </c>
       <c r="K398" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.3">
@@ -14510,7 +14504,7 @@
         <v>500</v>
       </c>
       <c r="K399" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.3">
@@ -14545,7 +14539,7 @@
         <v>500</v>
       </c>
       <c r="K400" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.3">
@@ -14580,7 +14574,7 @@
         <v>500</v>
       </c>
       <c r="K401" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.3">
@@ -14615,7 +14609,7 @@
         <v>500</v>
       </c>
       <c r="K402" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.3">
@@ -14650,7 +14644,7 @@
         <v>500</v>
       </c>
       <c r="K403" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.3">
@@ -14685,7 +14679,7 @@
         <v>500</v>
       </c>
       <c r="K404" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.3">
@@ -14720,7 +14714,7 @@
         <v>500</v>
       </c>
       <c r="K405" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.3">
@@ -14755,7 +14749,7 @@
         <v>500</v>
       </c>
       <c r="K406" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.3">
@@ -14790,7 +14784,7 @@
         <v>500</v>
       </c>
       <c r="K407" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.3">
@@ -14825,7 +14819,7 @@
         <v>500</v>
       </c>
       <c r="K408" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.3">
@@ -14860,7 +14854,7 @@
         <v>500</v>
       </c>
       <c r="K409" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.3">
@@ -14895,7 +14889,7 @@
         <v>500</v>
       </c>
       <c r="K410" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.3">
@@ -14930,7 +14924,7 @@
         <v>500</v>
       </c>
       <c r="K411" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.3">
@@ -14965,7 +14959,7 @@
         <v>500</v>
       </c>
       <c r="K412" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.3">
@@ -15000,7 +14994,7 @@
         <v>500</v>
       </c>
       <c r="K413" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.3">
@@ -15035,7 +15029,7 @@
         <v>500</v>
       </c>
       <c r="K414" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.3">
@@ -15070,7 +15064,7 @@
         <v>500</v>
       </c>
       <c r="K415" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.3">
@@ -15105,7 +15099,7 @@
         <v>500</v>
       </c>
       <c r="K416" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.3">
@@ -15140,7 +15134,7 @@
         <v>500</v>
       </c>
       <c r="K417" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L417" s="2" t="s">
         <v>24</v>
@@ -15178,7 +15172,7 @@
         <v>500</v>
       </c>
       <c r="K418" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
@@ -15213,7 +15207,7 @@
         <v>500</v>
       </c>
       <c r="K419" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.3">
@@ -15248,7 +15242,7 @@
         <v>500</v>
       </c>
       <c r="K420" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
@@ -15283,7 +15277,7 @@
         <v>500</v>
       </c>
       <c r="K421" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
@@ -15318,7 +15312,7 @@
         <v>500</v>
       </c>
       <c r="K422" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
@@ -15353,7 +15347,7 @@
         <v>500</v>
       </c>
       <c r="K423" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.3">
@@ -15388,7 +15382,7 @@
         <v>500</v>
       </c>
       <c r="K424" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.3">
@@ -15423,7 +15417,7 @@
         <v>500</v>
       </c>
       <c r="K425" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.3">
@@ -15458,7 +15452,7 @@
         <v>500</v>
       </c>
       <c r="K426" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.3">
@@ -15493,7 +15487,7 @@
         <v>500</v>
       </c>
       <c r="K427" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.3">
@@ -15528,7 +15522,7 @@
         <v>500</v>
       </c>
       <c r="K428" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.3">
@@ -15563,7 +15557,7 @@
         <v>500</v>
       </c>
       <c r="K429" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.3">
@@ -15598,7 +15592,7 @@
         <v>500</v>
       </c>
       <c r="K430" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.3">
@@ -15633,7 +15627,7 @@
         <v>500</v>
       </c>
       <c r="K431" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.3">
@@ -15668,7 +15662,7 @@
         <v>500</v>
       </c>
       <c r="K432" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.3">
@@ -15703,7 +15697,7 @@
         <v>500</v>
       </c>
       <c r="K433" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.3">
@@ -15738,7 +15732,7 @@
         <v>500</v>
       </c>
       <c r="K434" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.3">
@@ -15773,7 +15767,7 @@
         <v>500</v>
       </c>
       <c r="K435" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.3">
@@ -15808,7 +15802,7 @@
         <v>500</v>
       </c>
       <c r="K436" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.3">
@@ -15843,7 +15837,7 @@
         <v>500</v>
       </c>
       <c r="K437" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.3">
@@ -15878,7 +15872,7 @@
         <v>500</v>
       </c>
       <c r="K438" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.3">
@@ -15913,7 +15907,7 @@
         <v>500</v>
       </c>
       <c r="K439" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.3">
@@ -15948,7 +15942,7 @@
         <v>500</v>
       </c>
       <c r="K440" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.3">
@@ -15983,7 +15977,7 @@
         <v>500</v>
       </c>
       <c r="K441" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.3">
@@ -16018,7 +16012,7 @@
         <v>500</v>
       </c>
       <c r="K442" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.3">
@@ -16053,7 +16047,7 @@
         <v>500</v>
       </c>
       <c r="K443" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.3">
@@ -16088,7 +16082,7 @@
         <v>500</v>
       </c>
       <c r="K444" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.3">
@@ -16123,7 +16117,7 @@
         <v>500</v>
       </c>
       <c r="K445" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.3">
@@ -16158,7 +16152,7 @@
         <v>500</v>
       </c>
       <c r="K446" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.3">
@@ -16193,7 +16187,7 @@
         <v>500</v>
       </c>
       <c r="K447" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.3">
@@ -16228,7 +16222,7 @@
         <v>500</v>
       </c>
       <c r="K448" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.3">
@@ -16263,7 +16257,7 @@
         <v>500</v>
       </c>
       <c r="K449" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.3">
@@ -16298,7 +16292,7 @@
         <v>500</v>
       </c>
       <c r="K450" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.3">
@@ -16333,7 +16327,7 @@
         <v>500</v>
       </c>
       <c r="K451" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.3">
@@ -16368,7 +16362,7 @@
         <v>500</v>
       </c>
       <c r="K452" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.3">
@@ -16403,7 +16397,7 @@
         <v>500</v>
       </c>
       <c r="K453" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.3">
@@ -16438,7 +16432,7 @@
         <v>500</v>
       </c>
       <c r="K454" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.3">
@@ -16473,7 +16467,7 @@
         <v>500</v>
       </c>
       <c r="K455" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.3">
@@ -16508,7 +16502,7 @@
         <v>500</v>
       </c>
       <c r="K456" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.3">
@@ -16543,7 +16537,7 @@
         <v>500</v>
       </c>
       <c r="K457" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.3">
@@ -16578,7 +16572,7 @@
         <v>500</v>
       </c>
       <c r="K458" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.3">
@@ -16613,7 +16607,7 @@
         <v>500</v>
       </c>
       <c r="K459" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.3">
@@ -16648,7 +16642,7 @@
         <v>500</v>
       </c>
       <c r="K460" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.3">
@@ -16683,7 +16677,7 @@
         <v>500</v>
       </c>
       <c r="K461" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.3">
@@ -16718,7 +16712,7 @@
         <v>500</v>
       </c>
       <c r="K462" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.3">
@@ -16753,7 +16747,7 @@
         <v>500</v>
       </c>
       <c r="K463" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.3">
@@ -16788,7 +16782,7 @@
         <v>500</v>
       </c>
       <c r="K464" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.3">
@@ -16823,7 +16817,7 @@
         <v>500</v>
       </c>
       <c r="K465" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.3">
@@ -16858,7 +16852,7 @@
         <v>500</v>
       </c>
       <c r="K466" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.3">
@@ -16893,7 +16887,7 @@
         <v>500</v>
       </c>
       <c r="K467" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.3">
@@ -16928,7 +16922,7 @@
         <v>500</v>
       </c>
       <c r="K468" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.3">
@@ -16963,7 +16957,7 @@
         <v>500</v>
       </c>
       <c r="K469" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.3">
@@ -16998,7 +16992,7 @@
         <v>500</v>
       </c>
       <c r="K470" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.3">
@@ -17033,7 +17027,7 @@
         <v>500</v>
       </c>
       <c r="K471" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.3">
@@ -17068,7 +17062,7 @@
         <v>500</v>
       </c>
       <c r="K472" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.3">
@@ -17103,7 +17097,7 @@
         <v>500</v>
       </c>
       <c r="K473" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.3">
@@ -17138,7 +17132,7 @@
         <v>500</v>
       </c>
       <c r="K474" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.3">
@@ -17173,7 +17167,7 @@
         <v>500</v>
       </c>
       <c r="K475" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.3">
@@ -17208,7 +17202,7 @@
         <v>500</v>
       </c>
       <c r="K476" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.3">
@@ -17243,7 +17237,7 @@
         <v>500</v>
       </c>
       <c r="K477" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.3">
@@ -17278,7 +17272,7 @@
         <v>500</v>
       </c>
       <c r="K478" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.3">
@@ -17313,7 +17307,7 @@
         <v>500</v>
       </c>
       <c r="K479" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.3">
@@ -17348,7 +17342,7 @@
         <v>500</v>
       </c>
       <c r="K480" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.3">
@@ -17383,7 +17377,7 @@
         <v>500</v>
       </c>
       <c r="K481" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.3">
@@ -17418,7 +17412,7 @@
         <v>500</v>
       </c>
       <c r="K482" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.3">
@@ -17453,7 +17447,7 @@
         <v>500</v>
       </c>
       <c r="K483" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.3">
@@ -17488,7 +17482,7 @@
         <v>500</v>
       </c>
       <c r="K484" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.3">
@@ -17523,7 +17517,7 @@
         <v>500</v>
       </c>
       <c r="K485" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.3">
@@ -17558,7 +17552,7 @@
         <v>500</v>
       </c>
       <c r="K486" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.3">
@@ -17593,7 +17587,7 @@
         <v>500</v>
       </c>
       <c r="K487" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.3">
@@ -17628,7 +17622,7 @@
         <v>500</v>
       </c>
       <c r="K488" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.3">
@@ -17663,7 +17657,7 @@
         <v>500</v>
       </c>
       <c r="K489" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.3">
@@ -17698,7 +17692,7 @@
         <v>500</v>
       </c>
       <c r="K490" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.3">
@@ -17733,7 +17727,7 @@
         <v>500</v>
       </c>
       <c r="K491" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.3">
@@ -17768,7 +17762,7 @@
         <v>500</v>
       </c>
       <c r="K492" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.3">
@@ -17803,7 +17797,7 @@
         <v>500</v>
       </c>
       <c r="K493" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.3">
@@ -17838,7 +17832,7 @@
         <v>500</v>
       </c>
       <c r="K494" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.3">
@@ -17873,7 +17867,7 @@
         <v>500</v>
       </c>
       <c r="K495" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.3">
@@ -17908,7 +17902,7 @@
         <v>500</v>
       </c>
       <c r="K496" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.3">
@@ -17943,7 +17937,7 @@
         <v>500</v>
       </c>
       <c r="K497" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.3">
@@ -17978,7 +17972,7 @@
         <v>500</v>
       </c>
       <c r="K498" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.3">
@@ -18013,7 +18007,7 @@
         <v>500</v>
       </c>
       <c r="K499" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.3">
@@ -18048,7 +18042,7 @@
         <v>500</v>
       </c>
       <c r="K500" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.3">
@@ -18083,7 +18077,7 @@
         <v>500</v>
       </c>
       <c r="K501" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.3">
@@ -18118,7 +18112,7 @@
         <v>500</v>
       </c>
       <c r="K502" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.3">
@@ -18153,7 +18147,7 @@
         <v>500</v>
       </c>
       <c r="K503" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.3">
@@ -18188,7 +18182,7 @@
         <v>500</v>
       </c>
       <c r="K504" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.3">
@@ -18223,7 +18217,7 @@
         <v>500</v>
       </c>
       <c r="K505" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.3">
@@ -18258,7 +18252,7 @@
         <v>500</v>
       </c>
       <c r="K506" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.3">
@@ -18293,7 +18287,7 @@
         <v>500</v>
       </c>
       <c r="K507" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.3">
@@ -18328,7 +18322,7 @@
         <v>500</v>
       </c>
       <c r="K508" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.3">
@@ -18363,7 +18357,7 @@
         <v>500</v>
       </c>
       <c r="K509" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.3">
@@ -18398,7 +18392,7 @@
         <v>500</v>
       </c>
       <c r="K510" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.3">
@@ -18433,7 +18427,7 @@
         <v>500</v>
       </c>
       <c r="K511" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.3">
@@ -18468,7 +18462,7 @@
         <v>500</v>
       </c>
       <c r="K512" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.3">
@@ -18503,7 +18497,7 @@
         <v>500</v>
       </c>
       <c r="K513" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.3">
@@ -18538,7 +18532,7 @@
         <v>500</v>
       </c>
       <c r="K514" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.3">
@@ -18573,7 +18567,7 @@
         <v>500</v>
       </c>
       <c r="K515" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.3">
@@ -18608,7 +18602,7 @@
         <v>500</v>
       </c>
       <c r="K516" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.3">
@@ -18643,7 +18637,7 @@
         <v>500</v>
       </c>
       <c r="K517" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.3">
@@ -18678,7 +18672,7 @@
         <v>500</v>
       </c>
       <c r="K518" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.3">
@@ -18713,7 +18707,7 @@
         <v>500</v>
       </c>
       <c r="K519" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.3">
@@ -18748,7 +18742,7 @@
         <v>500</v>
       </c>
       <c r="K520" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.3">
@@ -18783,7 +18777,7 @@
         <v>500</v>
       </c>
       <c r="K521" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.3">
@@ -18818,7 +18812,7 @@
         <v>500</v>
       </c>
       <c r="K522" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.3">
@@ -18853,7 +18847,7 @@
         <v>500</v>
       </c>
       <c r="K523" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.3">
@@ -18888,7 +18882,7 @@
         <v>500</v>
       </c>
       <c r="K524" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.3">
@@ -18923,7 +18917,7 @@
         <v>500</v>
       </c>
       <c r="K525" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.3">
@@ -18958,7 +18952,7 @@
         <v>500</v>
       </c>
       <c r="K526" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.3">
@@ -18993,7 +18987,7 @@
         <v>500</v>
       </c>
       <c r="K527" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.3">
@@ -19028,7 +19022,7 @@
         <v>500</v>
       </c>
       <c r="K528" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.3">
@@ -19063,7 +19057,7 @@
         <v>500</v>
       </c>
       <c r="K529" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.3">
@@ -19098,7 +19092,7 @@
         <v>500</v>
       </c>
       <c r="K530" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.3">
@@ -19133,7 +19127,7 @@
         <v>500</v>
       </c>
       <c r="K531" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.3">
@@ -19168,7 +19162,7 @@
         <v>500</v>
       </c>
       <c r="K532" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.3">
@@ -19203,7 +19197,7 @@
         <v>500</v>
       </c>
       <c r="K533" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.3">
@@ -19238,7 +19232,7 @@
         <v>500</v>
       </c>
       <c r="K534" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.3">
@@ -19273,7 +19267,7 @@
         <v>500</v>
       </c>
       <c r="K535" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.3">
@@ -19308,7 +19302,7 @@
         <v>500</v>
       </c>
       <c r="K536" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.3">
@@ -19343,7 +19337,7 @@
         <v>500</v>
       </c>
       <c r="K537" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L537" s="2" t="s">
         <v>25</v>
@@ -19381,7 +19375,7 @@
         <v>500</v>
       </c>
       <c r="K538" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.3">
@@ -19416,7 +19410,7 @@
         <v>500</v>
       </c>
       <c r="K539" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.3">
@@ -19451,7 +19445,7 @@
         <v>500</v>
       </c>
       <c r="K540" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.3">
@@ -19486,7 +19480,7 @@
         <v>500</v>
       </c>
       <c r="K541" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.3">
@@ -19521,7 +19515,7 @@
         <v>500</v>
       </c>
       <c r="K542" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="543" spans="1:12" x14ac:dyDescent="0.3">
@@ -19556,7 +19550,7 @@
         <v>500</v>
       </c>
       <c r="K543" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="544" spans="1:12" x14ac:dyDescent="0.3">
@@ -19591,7 +19585,7 @@
         <v>500</v>
       </c>
       <c r="K544" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.3">
@@ -19626,7 +19620,7 @@
         <v>500</v>
       </c>
       <c r="K545" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.3">
@@ -19661,7 +19655,7 @@
         <v>500</v>
       </c>
       <c r="K546" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.3">
@@ -19696,7 +19690,7 @@
         <v>500</v>
       </c>
       <c r="K547" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.3">
@@ -19731,7 +19725,7 @@
         <v>500</v>
       </c>
       <c r="K548" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.3">
@@ -19766,7 +19760,7 @@
         <v>500</v>
       </c>
       <c r="K549" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.3">
@@ -19801,7 +19795,7 @@
         <v>500</v>
       </c>
       <c r="K550" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.3">
@@ -19836,7 +19830,7 @@
         <v>500</v>
       </c>
       <c r="K551" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.3">
@@ -19871,7 +19865,7 @@
         <v>500</v>
       </c>
       <c r="K552" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.3">
@@ -19906,7 +19900,7 @@
         <v>500</v>
       </c>
       <c r="K553" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.3">
@@ -19941,7 +19935,7 @@
         <v>500</v>
       </c>
       <c r="K554" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.3">
@@ -19976,7 +19970,7 @@
         <v>500</v>
       </c>
       <c r="K555" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.3">
@@ -20011,7 +20005,7 @@
         <v>500</v>
       </c>
       <c r="K556" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.3">
@@ -20046,7 +20040,7 @@
         <v>500</v>
       </c>
       <c r="K557" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.3">
@@ -20081,7 +20075,7 @@
         <v>500</v>
       </c>
       <c r="K558" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.3">
@@ -20116,7 +20110,7 @@
         <v>500</v>
       </c>
       <c r="K559" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.3">
@@ -20151,7 +20145,7 @@
         <v>500</v>
       </c>
       <c r="K560" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.3">
@@ -20186,7 +20180,7 @@
         <v>500</v>
       </c>
       <c r="K561" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.3">
@@ -20221,7 +20215,7 @@
         <v>500</v>
       </c>
       <c r="K562" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.3">
@@ -20256,7 +20250,7 @@
         <v>500</v>
       </c>
       <c r="K563" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.3">
@@ -20291,7 +20285,7 @@
         <v>500</v>
       </c>
       <c r="K564" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.3">
@@ -20326,7 +20320,7 @@
         <v>500</v>
       </c>
       <c r="K565" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.3">
@@ -20361,7 +20355,7 @@
         <v>500</v>
       </c>
       <c r="K566" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.3">
@@ -20396,7 +20390,7 @@
         <v>500</v>
       </c>
       <c r="K567" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.3">
@@ -20431,7 +20425,7 @@
         <v>500</v>
       </c>
       <c r="K568" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.3">
@@ -20466,7 +20460,7 @@
         <v>500</v>
       </c>
       <c r="K569" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.3">
@@ -20501,7 +20495,7 @@
         <v>500</v>
       </c>
       <c r="K570" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.3">
@@ -20536,7 +20530,7 @@
         <v>500</v>
       </c>
       <c r="K571" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.3">
@@ -20571,7 +20565,7 @@
         <v>500</v>
       </c>
       <c r="K572" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.3">
@@ -20606,7 +20600,7 @@
         <v>500</v>
       </c>
       <c r="K573" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.3">
@@ -20641,7 +20635,7 @@
         <v>500</v>
       </c>
       <c r="K574" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.3">
@@ -20676,7 +20670,7 @@
         <v>500</v>
       </c>
       <c r="K575" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.3">
@@ -20711,7 +20705,7 @@
         <v>500</v>
       </c>
       <c r="K576" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.3">
@@ -20746,7 +20740,7 @@
         <v>500</v>
       </c>
       <c r="K577" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.3">
@@ -20781,7 +20775,7 @@
         <v>500</v>
       </c>
       <c r="K578" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.3">
@@ -20816,7 +20810,7 @@
         <v>500</v>
       </c>
       <c r="K579" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.3">
@@ -20851,7 +20845,7 @@
         <v>500</v>
       </c>
       <c r="K580" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.3">
@@ -20886,7 +20880,7 @@
         <v>500</v>
       </c>
       <c r="K581" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.3">
@@ -20921,7 +20915,7 @@
         <v>500</v>
       </c>
       <c r="K582" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.3">
@@ -20956,7 +20950,7 @@
         <v>500</v>
       </c>
       <c r="K583" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.3">
@@ -20991,7 +20985,7 @@
         <v>500</v>
       </c>
       <c r="K584" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.3">
@@ -21026,7 +21020,7 @@
         <v>500</v>
       </c>
       <c r="K585" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.3">
@@ -21061,7 +21055,7 @@
         <v>500</v>
       </c>
       <c r="K586" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.3">
@@ -21096,7 +21090,7 @@
         <v>500</v>
       </c>
       <c r="K587" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.3">
@@ -21131,7 +21125,7 @@
         <v>500</v>
       </c>
       <c r="K588" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.3">
@@ -21166,7 +21160,7 @@
         <v>500</v>
       </c>
       <c r="K589" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.3">
@@ -21201,7 +21195,7 @@
         <v>500</v>
       </c>
       <c r="K590" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.3">
@@ -21236,7 +21230,7 @@
         <v>500</v>
       </c>
       <c r="K591" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.3">
@@ -21271,7 +21265,7 @@
         <v>500</v>
       </c>
       <c r="K592" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.3">
@@ -21306,7 +21300,7 @@
         <v>500</v>
       </c>
       <c r="K593" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.3">
@@ -21341,7 +21335,7 @@
         <v>500</v>
       </c>
       <c r="K594" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.3">
@@ -21376,7 +21370,7 @@
         <v>500</v>
       </c>
       <c r="K595" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.3">
@@ -21411,7 +21405,7 @@
         <v>500</v>
       </c>
       <c r="K596" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.3">
@@ -21446,7 +21440,7 @@
         <v>500</v>
       </c>
       <c r="K597" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.3">
@@ -21481,7 +21475,7 @@
         <v>500</v>
       </c>
       <c r="K598" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.3">
@@ -21516,7 +21510,7 @@
         <v>500</v>
       </c>
       <c r="K599" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.3">
@@ -21551,7 +21545,7 @@
         <v>500</v>
       </c>
       <c r="K600" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.3">
@@ -21586,7 +21580,7 @@
         <v>500</v>
       </c>
       <c r="K601" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.3">
@@ -21621,7 +21615,7 @@
         <v>500</v>
       </c>
       <c r="K602" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.3">
@@ -21656,7 +21650,7 @@
         <v>500</v>
       </c>
       <c r="K603" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.3">
@@ -21691,7 +21685,7 @@
         <v>500</v>
       </c>
       <c r="K604" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.3">
@@ -21726,7 +21720,7 @@
         <v>500</v>
       </c>
       <c r="K605" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.3">
@@ -21761,7 +21755,7 @@
         <v>500</v>
       </c>
       <c r="K606" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.3">
@@ -21796,7 +21790,7 @@
         <v>500</v>
       </c>
       <c r="K607" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.3">
@@ -21831,7 +21825,7 @@
         <v>500</v>
       </c>
       <c r="K608" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.3">
@@ -21866,7 +21860,7 @@
         <v>500</v>
       </c>
       <c r="K609" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.3">
@@ -21901,7 +21895,7 @@
         <v>500</v>
       </c>
       <c r="K610" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.3">
@@ -21936,7 +21930,7 @@
         <v>500</v>
       </c>
       <c r="K611" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.3">
@@ -21971,7 +21965,7 @@
         <v>500</v>
       </c>
       <c r="K612" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.3">
@@ -22006,7 +22000,7 @@
         <v>500</v>
       </c>
       <c r="K613" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.3">
@@ -22041,7 +22035,7 @@
         <v>500</v>
       </c>
       <c r="K614" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.3">
@@ -22076,7 +22070,7 @@
         <v>500</v>
       </c>
       <c r="K615" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.3">
@@ -22111,7 +22105,7 @@
         <v>500</v>
       </c>
       <c r="K616" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.3">
@@ -22146,7 +22140,7 @@
         <v>500</v>
       </c>
       <c r="K617" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.3">
@@ -22181,7 +22175,7 @@
         <v>500</v>
       </c>
       <c r="K618" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.3">
@@ -22216,7 +22210,7 @@
         <v>500</v>
       </c>
       <c r="K619" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.3">
@@ -22251,7 +22245,7 @@
         <v>500</v>
       </c>
       <c r="K620" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.3">
@@ -22286,7 +22280,7 @@
         <v>500</v>
       </c>
       <c r="K621" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.3">
@@ -22321,7 +22315,7 @@
         <v>500</v>
       </c>
       <c r="K622" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.3">
@@ -22356,7 +22350,7 @@
         <v>500</v>
       </c>
       <c r="K623" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.3">
@@ -22391,7 +22385,7 @@
         <v>500</v>
       </c>
       <c r="K624" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="625" spans="1:12" x14ac:dyDescent="0.3">
@@ -22426,7 +22420,7 @@
         <v>500</v>
       </c>
       <c r="K625" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="626" spans="1:12" x14ac:dyDescent="0.3">
@@ -22461,7 +22455,7 @@
         <v>500</v>
       </c>
       <c r="K626" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="627" spans="1:12" x14ac:dyDescent="0.3">
@@ -22496,7 +22490,7 @@
         <v>500</v>
       </c>
       <c r="K627" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="628" spans="1:12" x14ac:dyDescent="0.3">
@@ -22531,7 +22525,7 @@
         <v>500</v>
       </c>
       <c r="K628" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="629" spans="1:12" x14ac:dyDescent="0.3">
@@ -22566,7 +22560,7 @@
         <v>500</v>
       </c>
       <c r="K629" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="630" spans="1:12" x14ac:dyDescent="0.3">
@@ -22601,7 +22595,7 @@
         <v>500</v>
       </c>
       <c r="K630" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="631" spans="1:12" x14ac:dyDescent="0.3">
@@ -22636,7 +22630,7 @@
         <v>500</v>
       </c>
       <c r="K631" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="632" spans="1:12" x14ac:dyDescent="0.3">
@@ -22671,7 +22665,7 @@
         <v>500</v>
       </c>
       <c r="K632" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="633" spans="1:12" x14ac:dyDescent="0.3">
@@ -22706,7 +22700,7 @@
         <v>500</v>
       </c>
       <c r="K633" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="634" spans="1:12" x14ac:dyDescent="0.3">
@@ -22741,7 +22735,7 @@
         <v>500</v>
       </c>
       <c r="K634" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="635" spans="1:12" x14ac:dyDescent="0.3">
@@ -22776,7 +22770,7 @@
         <v>500</v>
       </c>
       <c r="K635" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="636" spans="1:12" x14ac:dyDescent="0.3">
@@ -22811,7 +22805,7 @@
         <v>500</v>
       </c>
       <c r="K636" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="637" spans="1:12" x14ac:dyDescent="0.3">
@@ -22846,7 +22840,7 @@
         <v>500</v>
       </c>
       <c r="K637" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L637" s="2" t="s">
         <v>26</v>
@@ -22884,7 +22878,7 @@
         <v>500</v>
       </c>
       <c r="K638" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="639" spans="1:12" x14ac:dyDescent="0.3">
@@ -22919,7 +22913,7 @@
         <v>500</v>
       </c>
       <c r="K639" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="640" spans="1:12" x14ac:dyDescent="0.3">
@@ -22954,7 +22948,7 @@
         <v>500</v>
       </c>
       <c r="K640" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.3">
@@ -22989,7 +22983,7 @@
         <v>500</v>
       </c>
       <c r="K641" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.3">
@@ -23024,7 +23018,7 @@
         <v>500</v>
       </c>
       <c r="K642" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.3">
@@ -23059,7 +23053,7 @@
         <v>500</v>
       </c>
       <c r="K643" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.3">
@@ -23094,7 +23088,7 @@
         <v>500</v>
       </c>
       <c r="K644" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.3">
@@ -23129,7 +23123,7 @@
         <v>500</v>
       </c>
       <c r="K645" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.3">
@@ -23164,7 +23158,7 @@
         <v>500</v>
       </c>
       <c r="K646" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.3">
@@ -23199,7 +23193,7 @@
         <v>500</v>
       </c>
       <c r="K647" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.3">
@@ -23234,7 +23228,7 @@
         <v>500</v>
       </c>
       <c r="K648" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.3">
@@ -23269,7 +23263,7 @@
         <v>500</v>
       </c>
       <c r="K649" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.3">
@@ -23304,7 +23298,7 @@
         <v>500</v>
       </c>
       <c r="K650" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.3">
@@ -23339,7 +23333,7 @@
         <v>500</v>
       </c>
       <c r="K651" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.3">
@@ -23374,7 +23368,7 @@
         <v>500</v>
       </c>
       <c r="K652" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.3">
@@ -23409,7 +23403,7 @@
         <v>500</v>
       </c>
       <c r="K653" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.3">
@@ -23444,7 +23438,7 @@
         <v>500</v>
       </c>
       <c r="K654" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.3">
@@ -23479,7 +23473,7 @@
         <v>500</v>
       </c>
       <c r="K655" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.3">
@@ -23514,7 +23508,7 @@
         <v>500</v>
       </c>
       <c r="K656" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.3">
@@ -23549,7 +23543,7 @@
         <v>500</v>
       </c>
       <c r="K657" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.3">
@@ -23584,7 +23578,7 @@
         <v>500</v>
       </c>
       <c r="K658" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.3">
@@ -23619,7 +23613,7 @@
         <v>500</v>
       </c>
       <c r="K659" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.3">
@@ -23654,7 +23648,7 @@
         <v>500</v>
       </c>
       <c r="K660" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.3">
@@ -23689,7 +23683,7 @@
         <v>500</v>
       </c>
       <c r="K661" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.3">
@@ -23724,7 +23718,7 @@
         <v>500</v>
       </c>
       <c r="K662" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.3">
@@ -23759,7 +23753,7 @@
         <v>500</v>
       </c>
       <c r="K663" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.3">
@@ -23794,7 +23788,7 @@
         <v>500</v>
       </c>
       <c r="K664" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.3">
@@ -23829,7 +23823,7 @@
         <v>500</v>
       </c>
       <c r="K665" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.3">
@@ -23864,7 +23858,7 @@
         <v>500</v>
       </c>
       <c r="K666" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.3">
@@ -23899,7 +23893,7 @@
         <v>500</v>
       </c>
       <c r="K667" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.3">
@@ -23934,7 +23928,7 @@
         <v>500</v>
       </c>
       <c r="K668" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.3">
@@ -23969,7 +23963,7 @@
         <v>500</v>
       </c>
       <c r="K669" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.3">
@@ -24004,7 +23998,7 @@
         <v>500</v>
       </c>
       <c r="K670" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.3">
@@ -24039,7 +24033,7 @@
         <v>500</v>
       </c>
       <c r="K671" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.3">
@@ -24074,7 +24068,7 @@
         <v>500</v>
       </c>
       <c r="K672" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.3">
@@ -24109,7 +24103,7 @@
         <v>500</v>
       </c>
       <c r="K673" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.3">
@@ -24144,7 +24138,7 @@
         <v>500</v>
       </c>
       <c r="K674" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.3">
@@ -24179,7 +24173,7 @@
         <v>500</v>
       </c>
       <c r="K675" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.3">
@@ -24214,7 +24208,7 @@
         <v>500</v>
       </c>
       <c r="K676" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.3">
@@ -24249,7 +24243,7 @@
         <v>500</v>
       </c>
       <c r="K677" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.3">
@@ -24284,7 +24278,7 @@
         <v>500</v>
       </c>
       <c r="K678" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.3">
@@ -24319,7 +24313,7 @@
         <v>500</v>
       </c>
       <c r="K679" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.3">
@@ -24354,7 +24348,7 @@
         <v>500</v>
       </c>
       <c r="K680" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.3">
@@ -24389,7 +24383,7 @@
         <v>500</v>
       </c>
       <c r="K681" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.3">
@@ -24424,7 +24418,7 @@
         <v>500</v>
       </c>
       <c r="K682" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.3">
@@ -24459,7 +24453,7 @@
         <v>500</v>
       </c>
       <c r="K683" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.3">
@@ -24494,7 +24488,7 @@
         <v>500</v>
       </c>
       <c r="K684" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.3">
@@ -24529,7 +24523,7 @@
         <v>500</v>
       </c>
       <c r="K685" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.3">
@@ -24564,7 +24558,7 @@
         <v>500</v>
       </c>
       <c r="K686" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.3">
@@ -24599,7 +24593,7 @@
         <v>500</v>
       </c>
       <c r="K687" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.3">
@@ -24634,7 +24628,7 @@
         <v>500</v>
       </c>
       <c r="K688" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.3">
@@ -24669,7 +24663,7 @@
         <v>500</v>
       </c>
       <c r="K689" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.3">
@@ -24704,7 +24698,7 @@
         <v>500</v>
       </c>
       <c r="K690" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.3">
@@ -24739,7 +24733,7 @@
         <v>500</v>
       </c>
       <c r="K691" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.3">
@@ -24774,7 +24768,7 @@
         <v>500</v>
       </c>
       <c r="K692" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.3">
@@ -24809,7 +24803,7 @@
         <v>500</v>
       </c>
       <c r="K693" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.3">
@@ -24844,7 +24838,7 @@
         <v>500</v>
       </c>
       <c r="K694" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.3">
@@ -24879,7 +24873,7 @@
         <v>500</v>
       </c>
       <c r="K695" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.3">
@@ -24914,7 +24908,7 @@
         <v>500</v>
       </c>
       <c r="K696" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.3">
@@ -24949,7 +24943,7 @@
         <v>500</v>
       </c>
       <c r="K697" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.3">
@@ -24984,7 +24978,7 @@
         <v>500</v>
       </c>
       <c r="K698" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.3">
@@ -25019,7 +25013,7 @@
         <v>500</v>
       </c>
       <c r="K699" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.3">
@@ -25054,7 +25048,7 @@
         <v>500</v>
       </c>
       <c r="K700" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.3">
@@ -25089,7 +25083,7 @@
         <v>500</v>
       </c>
       <c r="K701" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.3">
@@ -25124,7 +25118,7 @@
         <v>500</v>
       </c>
       <c r="K702" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.3">
@@ -25159,7 +25153,7 @@
         <v>500</v>
       </c>
       <c r="K703" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.3">
@@ -25194,7 +25188,7 @@
         <v>500</v>
       </c>
       <c r="K704" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.3">
@@ -25229,7 +25223,7 @@
         <v>500</v>
       </c>
       <c r="K705" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.3">
@@ -25264,7 +25258,7 @@
         <v>500</v>
       </c>
       <c r="K706" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.3">
@@ -25299,7 +25293,7 @@
         <v>500</v>
       </c>
       <c r="K707" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.3">
@@ -25334,7 +25328,7 @@
         <v>500</v>
       </c>
       <c r="K708" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.3">
@@ -25369,7 +25363,7 @@
         <v>500</v>
       </c>
       <c r="K709" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.3">
@@ -25404,7 +25398,7 @@
         <v>500</v>
       </c>
       <c r="K710" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.3">
@@ -25439,7 +25433,7 @@
         <v>500</v>
       </c>
       <c r="K711" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.3">
@@ -25474,7 +25468,7 @@
         <v>500</v>
       </c>
       <c r="K712" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.3">
@@ -25509,7 +25503,7 @@
         <v>500</v>
       </c>
       <c r="K713" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.3">
@@ -25544,7 +25538,7 @@
         <v>500</v>
       </c>
       <c r="K714" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.3">
@@ -25579,7 +25573,7 @@
         <v>500</v>
       </c>
       <c r="K715" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.3">
@@ -25614,7 +25608,7 @@
         <v>500</v>
       </c>
       <c r="K716" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.3">
@@ -25649,7 +25643,7 @@
         <v>500</v>
       </c>
       <c r="K717" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.3">
@@ -25684,7 +25678,7 @@
         <v>500</v>
       </c>
       <c r="K718" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.3">
@@ -25719,7 +25713,7 @@
         <v>500</v>
       </c>
       <c r="K719" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.3">
@@ -25754,7 +25748,7 @@
         <v>500</v>
       </c>
       <c r="K720" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.3">
@@ -25789,7 +25783,7 @@
         <v>500</v>
       </c>
       <c r="K721" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.3">
@@ -25824,7 +25818,7 @@
         <v>500</v>
       </c>
       <c r="K722" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.3">
@@ -25859,7 +25853,7 @@
         <v>500</v>
       </c>
       <c r="K723" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.3">
@@ -25894,7 +25888,7 @@
         <v>500</v>
       </c>
       <c r="K724" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.3">
@@ -25929,7 +25923,7 @@
         <v>500</v>
       </c>
       <c r="K725" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.3">
@@ -25964,7 +25958,7 @@
         <v>500</v>
       </c>
       <c r="K726" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.3">
@@ -25999,7 +25993,7 @@
         <v>500</v>
       </c>
       <c r="K727" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.3">
@@ -26034,7 +26028,7 @@
         <v>500</v>
       </c>
       <c r="K728" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.3">
@@ -26069,7 +26063,7 @@
         <v>500</v>
       </c>
       <c r="K729" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.3">
@@ -26104,7 +26098,7 @@
         <v>500</v>
       </c>
       <c r="K730" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.3">
@@ -26139,7 +26133,7 @@
         <v>500</v>
       </c>
       <c r="K731" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.3">
@@ -26174,7 +26168,7 @@
         <v>500</v>
       </c>
       <c r="K732" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.3">
@@ -26209,7 +26203,7 @@
         <v>500</v>
       </c>
       <c r="K733" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.3">
@@ -26244,7 +26238,7 @@
         <v>500</v>
       </c>
       <c r="K734" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.3">
@@ -26279,7 +26273,7 @@
         <v>500</v>
       </c>
       <c r="K735" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.3">
@@ -26314,7 +26308,7 @@
         <v>500</v>
       </c>
       <c r="K736" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.3">
@@ -26349,7 +26343,7 @@
         <v>500</v>
       </c>
       <c r="K737" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.3">
@@ -26384,7 +26378,7 @@
         <v>500</v>
       </c>
       <c r="K738" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.3">
@@ -26419,7 +26413,7 @@
         <v>500</v>
       </c>
       <c r="K739" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.3">
@@ -26454,7 +26448,7 @@
         <v>500</v>
       </c>
       <c r="K740" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.3">
@@ -26489,7 +26483,7 @@
         <v>500</v>
       </c>
       <c r="K741" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.3">
@@ -26524,7 +26518,7 @@
         <v>500</v>
       </c>
       <c r="K742" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.3">
@@ -26559,7 +26553,7 @@
         <v>500</v>
       </c>
       <c r="K743" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.3">
@@ -26594,7 +26588,7 @@
         <v>500</v>
       </c>
       <c r="K744" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.3">
@@ -26629,7 +26623,7 @@
         <v>500</v>
       </c>
       <c r="K745" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.3">
@@ -26664,7 +26658,7 @@
         <v>500</v>
       </c>
       <c r="K746" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.3">
@@ -26699,7 +26693,7 @@
         <v>500</v>
       </c>
       <c r="K747" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.3">
@@ -26734,7 +26728,7 @@
         <v>500</v>
       </c>
       <c r="K748" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.3">
@@ -26769,7 +26763,7 @@
         <v>500</v>
       </c>
       <c r="K749" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.3">
@@ -26804,7 +26798,7 @@
         <v>500</v>
       </c>
       <c r="K750" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.3">
@@ -26839,7 +26833,7 @@
         <v>500</v>
       </c>
       <c r="K751" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.3">
@@ -26874,7 +26868,7 @@
         <v>500</v>
       </c>
       <c r="K752" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="753" spans="1:12" x14ac:dyDescent="0.3">
@@ -26909,7 +26903,7 @@
         <v>500</v>
       </c>
       <c r="K753" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="754" spans="1:12" x14ac:dyDescent="0.3">
@@ -26944,7 +26938,7 @@
         <v>500</v>
       </c>
       <c r="K754" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="755" spans="1:12" x14ac:dyDescent="0.3">
@@ -26979,7 +26973,7 @@
         <v>500</v>
       </c>
       <c r="K755" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="756" spans="1:12" x14ac:dyDescent="0.3">
@@ -27014,7 +27008,7 @@
         <v>500</v>
       </c>
       <c r="K756" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="757" spans="1:12" x14ac:dyDescent="0.3">
@@ -27049,7 +27043,7 @@
         <v>500</v>
       </c>
       <c r="K757" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L757" s="2" t="s">
         <v>27</v>
@@ -27087,7 +27081,7 @@
         <v>500</v>
       </c>
       <c r="K758" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="759" spans="1:12" x14ac:dyDescent="0.3">
@@ -27122,7 +27116,7 @@
         <v>500</v>
       </c>
       <c r="K759" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="760" spans="1:12" x14ac:dyDescent="0.3">
@@ -27157,7 +27151,7 @@
         <v>500</v>
       </c>
       <c r="K760" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="761" spans="1:12" x14ac:dyDescent="0.3">
@@ -27192,7 +27186,7 @@
         <v>500</v>
       </c>
       <c r="K761" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="762" spans="1:12" x14ac:dyDescent="0.3">
@@ -27227,7 +27221,7 @@
         <v>500</v>
       </c>
       <c r="K762" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="763" spans="1:12" x14ac:dyDescent="0.3">
@@ -27262,7 +27256,7 @@
         <v>500</v>
       </c>
       <c r="K763" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="764" spans="1:12" x14ac:dyDescent="0.3">
@@ -27297,7 +27291,7 @@
         <v>500</v>
       </c>
       <c r="K764" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="765" spans="1:12" x14ac:dyDescent="0.3">
@@ -27332,7 +27326,7 @@
         <v>500</v>
       </c>
       <c r="K765" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="766" spans="1:12" x14ac:dyDescent="0.3">
@@ -27367,7 +27361,7 @@
         <v>500</v>
       </c>
       <c r="K766" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="767" spans="1:12" x14ac:dyDescent="0.3">
@@ -27402,7 +27396,7 @@
         <v>500</v>
       </c>
       <c r="K767" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="768" spans="1:12" x14ac:dyDescent="0.3">
@@ -27437,7 +27431,7 @@
         <v>500</v>
       </c>
       <c r="K768" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.3">
@@ -27472,7 +27466,7 @@
         <v>500</v>
       </c>
       <c r="K769" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.3">
@@ -27507,7 +27501,7 @@
         <v>500</v>
       </c>
       <c r="K770" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.3">
@@ -27542,7 +27536,7 @@
         <v>500</v>
       </c>
       <c r="K771" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.3">
@@ -27577,7 +27571,7 @@
         <v>500</v>
       </c>
       <c r="K772" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.3">
@@ -27612,7 +27606,7 @@
         <v>500</v>
       </c>
       <c r="K773" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.3">
@@ -27647,7 +27641,7 @@
         <v>500</v>
       </c>
       <c r="K774" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.3">
@@ -27682,7 +27676,7 @@
         <v>500</v>
       </c>
       <c r="K775" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.3">
@@ -27717,7 +27711,7 @@
         <v>500</v>
       </c>
       <c r="K776" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.3">
@@ -27752,7 +27746,7 @@
         <v>500</v>
       </c>
       <c r="K777" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.3">
@@ -27787,7 +27781,7 @@
         <v>500</v>
       </c>
       <c r="K778" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.3">
@@ -27822,7 +27816,7 @@
         <v>500</v>
       </c>
       <c r="K779" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.3">
@@ -27857,7 +27851,7 @@
         <v>500</v>
       </c>
       <c r="K780" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.3">
@@ -27892,7 +27886,7 @@
         <v>500</v>
       </c>
       <c r="K781" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.3">
@@ -27927,7 +27921,7 @@
         <v>500</v>
       </c>
       <c r="K782" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.3">
@@ -27962,7 +27956,7 @@
         <v>500</v>
       </c>
       <c r="K783" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.3">
@@ -27997,7 +27991,7 @@
         <v>500</v>
       </c>
       <c r="K784" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.3">
@@ -28032,7 +28026,7 @@
         <v>500</v>
       </c>
       <c r="K785" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.3">
@@ -28067,7 +28061,7 @@
         <v>500</v>
       </c>
       <c r="K786" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.3">
@@ -28102,7 +28096,7 @@
         <v>500</v>
       </c>
       <c r="K787" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.3">
@@ -28137,7 +28131,7 @@
         <v>500</v>
       </c>
       <c r="K788" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.3">
@@ -28172,7 +28166,7 @@
         <v>500</v>
       </c>
       <c r="K789" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.3">
@@ -28207,7 +28201,7 @@
         <v>500</v>
       </c>
       <c r="K790" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.3">
@@ -28242,7 +28236,7 @@
         <v>500</v>
       </c>
       <c r="K791" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.3">
@@ -28277,7 +28271,7 @@
         <v>500</v>
       </c>
       <c r="K792" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.3">
@@ -28312,7 +28306,7 @@
         <v>500</v>
       </c>
       <c r="K793" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.3">
@@ -28347,7 +28341,7 @@
         <v>500</v>
       </c>
       <c r="K794" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.3">
@@ -28382,7 +28376,7 @@
         <v>500</v>
       </c>
       <c r="K795" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.3">
@@ -28417,7 +28411,7 @@
         <v>500</v>
       </c>
       <c r="K796" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.3">
@@ -28452,7 +28446,7 @@
         <v>500</v>
       </c>
       <c r="K797" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.3">
@@ -28487,7 +28481,7 @@
         <v>500</v>
       </c>
       <c r="K798" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="799" spans="1:11" x14ac:dyDescent="0.3">
@@ -28522,7 +28516,7 @@
         <v>500</v>
       </c>
       <c r="K799" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="800" spans="1:11" x14ac:dyDescent="0.3">
@@ -28557,7 +28551,7 @@
         <v>500</v>
       </c>
       <c r="K800" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="801" spans="1:11" x14ac:dyDescent="0.3">
@@ -28592,7 +28586,7 @@
         <v>500</v>
       </c>
       <c r="K801" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.3">
@@ -28627,7 +28621,7 @@
         <v>500</v>
       </c>
       <c r="K802" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="803" spans="1:11" x14ac:dyDescent="0.3">
@@ -28662,7 +28656,7 @@
         <v>500</v>
       </c>
       <c r="K803" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="804" spans="1:11" x14ac:dyDescent="0.3">
@@ -28697,7 +28691,7 @@
         <v>500</v>
       </c>
       <c r="K804" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="805" spans="1:11" x14ac:dyDescent="0.3">
@@ -28732,7 +28726,7 @@
         <v>500</v>
       </c>
       <c r="K805" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.3">
@@ -28767,7 +28761,7 @@
         <v>500</v>
       </c>
       <c r="K806" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.3">
@@ -28802,7 +28796,7 @@
         <v>500</v>
       </c>
       <c r="K807" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.3">
@@ -28837,7 +28831,7 @@
         <v>500</v>
       </c>
       <c r="K808" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.3">
@@ -28872,7 +28866,7 @@
         <v>500</v>
       </c>
       <c r="K809" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.3">
@@ -28907,7 +28901,7 @@
         <v>500</v>
       </c>
       <c r="K810" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.3">
@@ -28942,7 +28936,7 @@
         <v>500</v>
       </c>
       <c r="K811" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.3">
@@ -28977,7 +28971,7 @@
         <v>500</v>
       </c>
       <c r="K812" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.3">
@@ -29012,7 +29006,7 @@
         <v>500</v>
       </c>
       <c r="K813" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="814" spans="1:11" x14ac:dyDescent="0.3">
@@ -29047,7 +29041,7 @@
         <v>500</v>
       </c>
       <c r="K814" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="815" spans="1:11" x14ac:dyDescent="0.3">
@@ -29082,7 +29076,7 @@
         <v>500</v>
       </c>
       <c r="K815" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="816" spans="1:11" x14ac:dyDescent="0.3">
@@ -29117,7 +29111,7 @@
         <v>500</v>
       </c>
       <c r="K816" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="817" spans="1:11" x14ac:dyDescent="0.3">
@@ -29152,7 +29146,7 @@
         <v>500</v>
       </c>
       <c r="K817" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="818" spans="1:11" x14ac:dyDescent="0.3">
@@ -29187,7 +29181,7 @@
         <v>500</v>
       </c>
       <c r="K818" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="819" spans="1:11" x14ac:dyDescent="0.3">
@@ -29222,7 +29216,7 @@
         <v>500</v>
       </c>
       <c r="K819" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="820" spans="1:11" x14ac:dyDescent="0.3">
@@ -29257,7 +29251,7 @@
         <v>500</v>
       </c>
       <c r="K820" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="821" spans="1:11" x14ac:dyDescent="0.3">
@@ -29292,7 +29286,7 @@
         <v>500</v>
       </c>
       <c r="K821" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="822" spans="1:11" x14ac:dyDescent="0.3">
@@ -29327,7 +29321,7 @@
         <v>500</v>
       </c>
       <c r="K822" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="823" spans="1:11" x14ac:dyDescent="0.3">
@@ -29362,7 +29356,7 @@
         <v>500</v>
       </c>
       <c r="K823" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="824" spans="1:11" x14ac:dyDescent="0.3">
@@ -29397,7 +29391,7 @@
         <v>500</v>
       </c>
       <c r="K824" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="825" spans="1:11" x14ac:dyDescent="0.3">
@@ -29432,7 +29426,7 @@
         <v>500</v>
       </c>
       <c r="K825" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="826" spans="1:11" x14ac:dyDescent="0.3">
@@ -29467,7 +29461,7 @@
         <v>500</v>
       </c>
       <c r="K826" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="827" spans="1:11" x14ac:dyDescent="0.3">
@@ -29502,7 +29496,7 @@
         <v>500</v>
       </c>
       <c r="K827" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="828" spans="1:11" x14ac:dyDescent="0.3">
@@ -29537,7 +29531,7 @@
         <v>500</v>
       </c>
       <c r="K828" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="829" spans="1:11" x14ac:dyDescent="0.3">
@@ -29572,7 +29566,7 @@
         <v>500</v>
       </c>
       <c r="K829" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="830" spans="1:11" x14ac:dyDescent="0.3">
@@ -29607,7 +29601,7 @@
         <v>500</v>
       </c>
       <c r="K830" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="831" spans="1:11" x14ac:dyDescent="0.3">
@@ -29642,7 +29636,7 @@
         <v>500</v>
       </c>
       <c r="K831" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="832" spans="1:11" x14ac:dyDescent="0.3">
@@ -29677,7 +29671,7 @@
         <v>500</v>
       </c>
       <c r="K832" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="833" spans="1:11" x14ac:dyDescent="0.3">
@@ -29712,7 +29706,7 @@
         <v>500</v>
       </c>
       <c r="K833" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="834" spans="1:11" x14ac:dyDescent="0.3">
@@ -29747,7 +29741,7 @@
         <v>500</v>
       </c>
       <c r="K834" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="835" spans="1:11" x14ac:dyDescent="0.3">
@@ -29782,7 +29776,7 @@
         <v>500</v>
       </c>
       <c r="K835" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="836" spans="1:11" x14ac:dyDescent="0.3">
@@ -29817,7 +29811,7 @@
         <v>500</v>
       </c>
       <c r="K836" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="837" spans="1:11" x14ac:dyDescent="0.3">
@@ -29852,7 +29846,7 @@
         <v>500</v>
       </c>
       <c r="K837" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="838" spans="1:11" x14ac:dyDescent="0.3">
@@ -29887,7 +29881,7 @@
         <v>500</v>
       </c>
       <c r="K838" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="839" spans="1:11" x14ac:dyDescent="0.3">
@@ -29922,7 +29916,7 @@
         <v>500</v>
       </c>
       <c r="K839" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="840" spans="1:11" x14ac:dyDescent="0.3">
@@ -29957,7 +29951,7 @@
         <v>500</v>
       </c>
       <c r="K840" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="841" spans="1:11" x14ac:dyDescent="0.3">
@@ -29992,7 +29986,7 @@
         <v>500</v>
       </c>
       <c r="K841" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="842" spans="1:11" x14ac:dyDescent="0.3">
@@ -30027,7 +30021,7 @@
         <v>500</v>
       </c>
       <c r="K842" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="843" spans="1:11" x14ac:dyDescent="0.3">
@@ -30062,7 +30056,7 @@
         <v>500</v>
       </c>
       <c r="K843" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="844" spans="1:11" x14ac:dyDescent="0.3">
@@ -30097,7 +30091,7 @@
         <v>500</v>
       </c>
       <c r="K844" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="845" spans="1:11" x14ac:dyDescent="0.3">
@@ -30132,7 +30126,7 @@
         <v>500</v>
       </c>
       <c r="K845" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="846" spans="1:11" x14ac:dyDescent="0.3">
@@ -30167,7 +30161,7 @@
         <v>500</v>
       </c>
       <c r="K846" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="847" spans="1:11" x14ac:dyDescent="0.3">
@@ -30202,7 +30196,7 @@
         <v>500</v>
       </c>
       <c r="K847" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="848" spans="1:11" x14ac:dyDescent="0.3">
@@ -30237,7 +30231,7 @@
         <v>500</v>
       </c>
       <c r="K848" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="849" spans="1:12" x14ac:dyDescent="0.3">
@@ -30272,7 +30266,7 @@
         <v>500</v>
       </c>
       <c r="K849" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="850" spans="1:12" x14ac:dyDescent="0.3">
@@ -30307,7 +30301,7 @@
         <v>500</v>
       </c>
       <c r="K850" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="851" spans="1:12" x14ac:dyDescent="0.3">
@@ -30342,7 +30336,7 @@
         <v>500</v>
       </c>
       <c r="K851" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="852" spans="1:12" x14ac:dyDescent="0.3">
@@ -30377,7 +30371,7 @@
         <v>500</v>
       </c>
       <c r="K852" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="853" spans="1:12" x14ac:dyDescent="0.3">
@@ -30412,7 +30406,7 @@
         <v>500</v>
       </c>
       <c r="K853" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="854" spans="1:12" x14ac:dyDescent="0.3">
@@ -30447,7 +30441,7 @@
         <v>500</v>
       </c>
       <c r="K854" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="855" spans="1:12" x14ac:dyDescent="0.3">
@@ -30482,7 +30476,7 @@
         <v>500</v>
       </c>
       <c r="K855" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="856" spans="1:12" x14ac:dyDescent="0.3">
@@ -30517,7 +30511,7 @@
         <v>500</v>
       </c>
       <c r="K856" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="857" spans="1:12" x14ac:dyDescent="0.3">
@@ -30552,7 +30546,7 @@
         <v>500</v>
       </c>
       <c r="K857" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L857" s="2" t="s">
         <v>28</v>
@@ -30590,7 +30584,7 @@
         <v>500</v>
       </c>
       <c r="K858" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="859" spans="1:12" x14ac:dyDescent="0.3">
@@ -30625,7 +30619,7 @@
         <v>500</v>
       </c>
       <c r="K859" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="860" spans="1:12" x14ac:dyDescent="0.3">
@@ -30660,7 +30654,7 @@
         <v>500</v>
       </c>
       <c r="K860" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="861" spans="1:12" x14ac:dyDescent="0.3">
@@ -30695,7 +30689,7 @@
         <v>500</v>
       </c>
       <c r="K861" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="862" spans="1:12" x14ac:dyDescent="0.3">
@@ -30730,7 +30724,7 @@
         <v>500</v>
       </c>
       <c r="K862" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="863" spans="1:12" x14ac:dyDescent="0.3">
@@ -30765,7 +30759,7 @@
         <v>500</v>
       </c>
       <c r="K863" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="864" spans="1:12" x14ac:dyDescent="0.3">
@@ -30800,7 +30794,7 @@
         <v>500</v>
       </c>
       <c r="K864" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="865" spans="1:11" x14ac:dyDescent="0.3">
@@ -30835,7 +30829,7 @@
         <v>500</v>
       </c>
       <c r="K865" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="866" spans="1:11" x14ac:dyDescent="0.3">
@@ -30870,7 +30864,7 @@
         <v>500</v>
       </c>
       <c r="K866" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="867" spans="1:11" x14ac:dyDescent="0.3">
@@ -30905,7 +30899,7 @@
         <v>500</v>
       </c>
       <c r="K867" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="868" spans="1:11" x14ac:dyDescent="0.3">
@@ -30940,7 +30934,7 @@
         <v>500</v>
       </c>
       <c r="K868" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="869" spans="1:11" x14ac:dyDescent="0.3">
@@ -30975,7 +30969,7 @@
         <v>500</v>
       </c>
       <c r="K869" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="870" spans="1:11" x14ac:dyDescent="0.3">
@@ -31010,7 +31004,7 @@
         <v>500</v>
       </c>
       <c r="K870" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="871" spans="1:11" x14ac:dyDescent="0.3">
@@ -31045,7 +31039,7 @@
         <v>500</v>
       </c>
       <c r="K871" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="872" spans="1:11" x14ac:dyDescent="0.3">
@@ -31080,7 +31074,7 @@
         <v>500</v>
       </c>
       <c r="K872" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="873" spans="1:11" x14ac:dyDescent="0.3">
@@ -31115,7 +31109,7 @@
         <v>500</v>
       </c>
       <c r="K873" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="874" spans="1:11" x14ac:dyDescent="0.3">
@@ -31150,7 +31144,7 @@
         <v>500</v>
       </c>
       <c r="K874" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="875" spans="1:11" x14ac:dyDescent="0.3">
@@ -31185,7 +31179,7 @@
         <v>500</v>
       </c>
       <c r="K875" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="876" spans="1:11" x14ac:dyDescent="0.3">
@@ -31220,7 +31214,7 @@
         <v>500</v>
       </c>
       <c r="K876" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="877" spans="1:11" x14ac:dyDescent="0.3">
@@ -31255,7 +31249,7 @@
         <v>500</v>
       </c>
       <c r="K877" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="878" spans="1:11" x14ac:dyDescent="0.3">
@@ -31290,7 +31284,7 @@
         <v>500</v>
       </c>
       <c r="K878" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="879" spans="1:11" x14ac:dyDescent="0.3">
@@ -31325,7 +31319,7 @@
         <v>500</v>
       </c>
       <c r="K879" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="880" spans="1:11" x14ac:dyDescent="0.3">
@@ -31360,7 +31354,7 @@
         <v>500</v>
       </c>
       <c r="K880" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="881" spans="1:11" x14ac:dyDescent="0.3">
@@ -31395,7 +31389,7 @@
         <v>500</v>
       </c>
       <c r="K881" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="882" spans="1:11" x14ac:dyDescent="0.3">
@@ -31430,7 +31424,7 @@
         <v>500</v>
       </c>
       <c r="K882" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="883" spans="1:11" x14ac:dyDescent="0.3">
@@ -31465,7 +31459,7 @@
         <v>500</v>
       </c>
       <c r="K883" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="884" spans="1:11" x14ac:dyDescent="0.3">
@@ -31500,7 +31494,7 @@
         <v>500</v>
       </c>
       <c r="K884" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="885" spans="1:11" x14ac:dyDescent="0.3">
@@ -31535,7 +31529,7 @@
         <v>500</v>
       </c>
       <c r="K885" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="886" spans="1:11" x14ac:dyDescent="0.3">
@@ -31570,7 +31564,7 @@
         <v>500</v>
       </c>
       <c r="K886" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="887" spans="1:11" x14ac:dyDescent="0.3">
@@ -31605,7 +31599,7 @@
         <v>500</v>
       </c>
       <c r="K887" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="888" spans="1:11" x14ac:dyDescent="0.3">
@@ -31640,7 +31634,7 @@
         <v>500</v>
       </c>
       <c r="K888" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="889" spans="1:11" x14ac:dyDescent="0.3">
@@ -31675,7 +31669,7 @@
         <v>500</v>
       </c>
       <c r="K889" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="890" spans="1:11" x14ac:dyDescent="0.3">
@@ -31710,7 +31704,7 @@
         <v>500</v>
       </c>
       <c r="K890" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="891" spans="1:11" x14ac:dyDescent="0.3">
@@ -31745,7 +31739,7 @@
         <v>500</v>
       </c>
       <c r="K891" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="892" spans="1:11" x14ac:dyDescent="0.3">
@@ -31780,7 +31774,7 @@
         <v>500</v>
       </c>
       <c r="K892" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="893" spans="1:11" x14ac:dyDescent="0.3">
@@ -31815,7 +31809,7 @@
         <v>500</v>
       </c>
       <c r="K893" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="894" spans="1:11" x14ac:dyDescent="0.3">
@@ -31850,7 +31844,7 @@
         <v>500</v>
       </c>
       <c r="K894" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="895" spans="1:11" x14ac:dyDescent="0.3">
@@ -31885,7 +31879,7 @@
         <v>500</v>
       </c>
       <c r="K895" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="896" spans="1:11" x14ac:dyDescent="0.3">
@@ -31920,7 +31914,7 @@
         <v>500</v>
       </c>
       <c r="K896" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="897" spans="1:11" x14ac:dyDescent="0.3">
@@ -31955,7 +31949,7 @@
         <v>500</v>
       </c>
       <c r="K897" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="898" spans="1:11" x14ac:dyDescent="0.3">
@@ -31990,7 +31984,7 @@
         <v>500</v>
       </c>
       <c r="K898" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="899" spans="1:11" x14ac:dyDescent="0.3">
@@ -32025,7 +32019,7 @@
         <v>500</v>
       </c>
       <c r="K899" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="900" spans="1:11" x14ac:dyDescent="0.3">
@@ -32060,7 +32054,7 @@
         <v>500</v>
       </c>
       <c r="K900" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="901" spans="1:11" x14ac:dyDescent="0.3">
@@ -32095,7 +32089,7 @@
         <v>500</v>
       </c>
       <c r="K901" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="902" spans="1:11" x14ac:dyDescent="0.3">
@@ -32130,7 +32124,7 @@
         <v>500</v>
       </c>
       <c r="K902" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="903" spans="1:11" x14ac:dyDescent="0.3">
@@ -32165,7 +32159,7 @@
         <v>500</v>
       </c>
       <c r="K903" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="904" spans="1:11" x14ac:dyDescent="0.3">
@@ -32200,7 +32194,7 @@
         <v>500</v>
       </c>
       <c r="K904" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="905" spans="1:11" x14ac:dyDescent="0.3">
@@ -32235,7 +32229,7 @@
         <v>500</v>
       </c>
       <c r="K905" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="906" spans="1:11" x14ac:dyDescent="0.3">
@@ -32270,7 +32264,7 @@
         <v>500</v>
       </c>
       <c r="K906" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="907" spans="1:11" x14ac:dyDescent="0.3">
@@ -32305,7 +32299,7 @@
         <v>500</v>
       </c>
       <c r="K907" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="908" spans="1:11" x14ac:dyDescent="0.3">
@@ -32340,7 +32334,7 @@
         <v>500</v>
       </c>
       <c r="K908" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="909" spans="1:11" x14ac:dyDescent="0.3">
@@ -32375,7 +32369,7 @@
         <v>500</v>
       </c>
       <c r="K909" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="910" spans="1:11" x14ac:dyDescent="0.3">
@@ -32410,7 +32404,7 @@
         <v>500</v>
       </c>
       <c r="K910" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="911" spans="1:11" x14ac:dyDescent="0.3">
@@ -32445,7 +32439,7 @@
         <v>500</v>
       </c>
       <c r="K911" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="912" spans="1:11" x14ac:dyDescent="0.3">
@@ -32480,7 +32474,7 @@
         <v>500</v>
       </c>
       <c r="K912" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="913" spans="1:11" x14ac:dyDescent="0.3">
@@ -32515,7 +32509,7 @@
         <v>500</v>
       </c>
       <c r="K913" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="914" spans="1:11" x14ac:dyDescent="0.3">
@@ -32550,7 +32544,7 @@
         <v>500</v>
       </c>
       <c r="K914" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="915" spans="1:11" x14ac:dyDescent="0.3">
@@ -32585,7 +32579,7 @@
         <v>500</v>
       </c>
       <c r="K915" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="916" spans="1:11" x14ac:dyDescent="0.3">
@@ -32620,7 +32614,7 @@
         <v>500</v>
       </c>
       <c r="K916" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="917" spans="1:11" x14ac:dyDescent="0.3">
@@ -32655,7 +32649,7 @@
         <v>500</v>
       </c>
       <c r="K917" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="918" spans="1:11" x14ac:dyDescent="0.3">
@@ -32690,7 +32684,7 @@
         <v>500</v>
       </c>
       <c r="K918" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="919" spans="1:11" x14ac:dyDescent="0.3">
@@ -32725,7 +32719,7 @@
         <v>500</v>
       </c>
       <c r="K919" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="920" spans="1:11" x14ac:dyDescent="0.3">
@@ -32760,7 +32754,7 @@
         <v>500</v>
       </c>
       <c r="K920" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="921" spans="1:11" x14ac:dyDescent="0.3">
@@ -32795,7 +32789,7 @@
         <v>500</v>
       </c>
       <c r="K921" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="922" spans="1:11" x14ac:dyDescent="0.3">
@@ -32830,7 +32824,7 @@
         <v>500</v>
       </c>
       <c r="K922" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="923" spans="1:11" x14ac:dyDescent="0.3">
@@ -32865,7 +32859,7 @@
         <v>500</v>
       </c>
       <c r="K923" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="924" spans="1:11" x14ac:dyDescent="0.3">
@@ -32900,7 +32894,7 @@
         <v>500</v>
       </c>
       <c r="K924" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="925" spans="1:11" x14ac:dyDescent="0.3">
@@ -32935,7 +32929,7 @@
         <v>500</v>
       </c>
       <c r="K925" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="926" spans="1:11" x14ac:dyDescent="0.3">
@@ -32970,7 +32964,7 @@
         <v>500</v>
       </c>
       <c r="K926" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="927" spans="1:11" x14ac:dyDescent="0.3">
@@ -33005,7 +32999,7 @@
         <v>500</v>
       </c>
       <c r="K927" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="928" spans="1:11" x14ac:dyDescent="0.3">
@@ -33040,7 +33034,7 @@
         <v>500</v>
       </c>
       <c r="K928" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="929" spans="1:11" x14ac:dyDescent="0.3">
@@ -33075,7 +33069,7 @@
         <v>500</v>
       </c>
       <c r="K929" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="930" spans="1:11" x14ac:dyDescent="0.3">
@@ -33110,7 +33104,7 @@
         <v>500</v>
       </c>
       <c r="K930" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="931" spans="1:11" x14ac:dyDescent="0.3">
@@ -33145,7 +33139,7 @@
         <v>500</v>
       </c>
       <c r="K931" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="932" spans="1:11" x14ac:dyDescent="0.3">
@@ -33180,7 +33174,7 @@
         <v>500</v>
       </c>
       <c r="K932" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="933" spans="1:11" x14ac:dyDescent="0.3">
@@ -33215,7 +33209,7 @@
         <v>500</v>
       </c>
       <c r="K933" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="934" spans="1:11" x14ac:dyDescent="0.3">
@@ -33250,7 +33244,7 @@
         <v>500</v>
       </c>
       <c r="K934" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="935" spans="1:11" x14ac:dyDescent="0.3">
@@ -33285,7 +33279,7 @@
         <v>500</v>
       </c>
       <c r="K935" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="936" spans="1:11" x14ac:dyDescent="0.3">
@@ -33320,7 +33314,7 @@
         <v>500</v>
       </c>
       <c r="K936" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="937" spans="1:11" x14ac:dyDescent="0.3">
@@ -33355,7 +33349,7 @@
         <v>500</v>
       </c>
       <c r="K937" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="938" spans="1:11" x14ac:dyDescent="0.3">
@@ -33390,7 +33384,7 @@
         <v>500</v>
       </c>
       <c r="K938" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="939" spans="1:11" x14ac:dyDescent="0.3">
@@ -33425,7 +33419,7 @@
         <v>500</v>
       </c>
       <c r="K939" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="940" spans="1:11" x14ac:dyDescent="0.3">
@@ -33460,7 +33454,7 @@
         <v>500</v>
       </c>
       <c r="K940" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="941" spans="1:11" x14ac:dyDescent="0.3">
@@ -33495,7 +33489,7 @@
         <v>500</v>
       </c>
       <c r="K941" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="942" spans="1:11" x14ac:dyDescent="0.3">
@@ -33530,7 +33524,7 @@
         <v>500</v>
       </c>
       <c r="K942" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="943" spans="1:11" x14ac:dyDescent="0.3">
@@ -33565,7 +33559,7 @@
         <v>500</v>
       </c>
       <c r="K943" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="944" spans="1:11" x14ac:dyDescent="0.3">
@@ -33600,7 +33594,7 @@
         <v>500</v>
       </c>
       <c r="K944" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="945" spans="1:12" x14ac:dyDescent="0.3">
@@ -33635,7 +33629,7 @@
         <v>500</v>
       </c>
       <c r="K945" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="946" spans="1:12" x14ac:dyDescent="0.3">
@@ -33670,7 +33664,7 @@
         <v>500</v>
       </c>
       <c r="K946" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="947" spans="1:12" x14ac:dyDescent="0.3">
@@ -33705,7 +33699,7 @@
         <v>500</v>
       </c>
       <c r="K947" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="948" spans="1:12" x14ac:dyDescent="0.3">
@@ -33740,7 +33734,7 @@
         <v>500</v>
       </c>
       <c r="K948" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="949" spans="1:12" x14ac:dyDescent="0.3">
@@ -33775,7 +33769,7 @@
         <v>500</v>
       </c>
       <c r="K949" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="950" spans="1:12" x14ac:dyDescent="0.3">
@@ -33810,7 +33804,7 @@
         <v>500</v>
       </c>
       <c r="K950" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="951" spans="1:12" x14ac:dyDescent="0.3">
@@ -33845,7 +33839,7 @@
         <v>500</v>
       </c>
       <c r="K951" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="952" spans="1:12" x14ac:dyDescent="0.3">
@@ -33880,7 +33874,7 @@
         <v>500</v>
       </c>
       <c r="K952" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="953" spans="1:12" x14ac:dyDescent="0.3">
@@ -33915,7 +33909,7 @@
         <v>500</v>
       </c>
       <c r="K953" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="954" spans="1:12" x14ac:dyDescent="0.3">
@@ -33950,7 +33944,7 @@
         <v>500</v>
       </c>
       <c r="K954" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="955" spans="1:12" x14ac:dyDescent="0.3">
@@ -33985,7 +33979,7 @@
         <v>500</v>
       </c>
       <c r="K955" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="956" spans="1:12" x14ac:dyDescent="0.3">
@@ -34020,7 +34014,7 @@
         <v>500</v>
       </c>
       <c r="K956" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="957" spans="1:12" x14ac:dyDescent="0.3">
@@ -34055,7 +34049,7 @@
         <v>100</v>
       </c>
       <c r="K957" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L957" s="2" t="s">
         <v>19</v>
@@ -34093,7 +34087,7 @@
         <v>100</v>
       </c>
       <c r="K958" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="959" spans="1:12" x14ac:dyDescent="0.3">
@@ -34128,7 +34122,7 @@
         <v>100</v>
       </c>
       <c r="K959" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="960" spans="1:12" x14ac:dyDescent="0.3">
@@ -34163,7 +34157,7 @@
         <v>100</v>
       </c>
       <c r="K960" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="961" spans="1:11" x14ac:dyDescent="0.3">
@@ -34198,7 +34192,7 @@
         <v>100</v>
       </c>
       <c r="K961" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="962" spans="1:11" x14ac:dyDescent="0.3">
@@ -34233,7 +34227,7 @@
         <v>100</v>
       </c>
       <c r="K962" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="963" spans="1:11" x14ac:dyDescent="0.3">
@@ -34268,7 +34262,7 @@
         <v>100</v>
       </c>
       <c r="K963" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="964" spans="1:11" x14ac:dyDescent="0.3">
@@ -34303,7 +34297,7 @@
         <v>100</v>
       </c>
       <c r="K964" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="965" spans="1:11" x14ac:dyDescent="0.3">
@@ -34338,7 +34332,7 @@
         <v>100</v>
       </c>
       <c r="K965" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="966" spans="1:11" x14ac:dyDescent="0.3">
@@ -34373,7 +34367,7 @@
         <v>100</v>
       </c>
       <c r="K966" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="967" spans="1:11" x14ac:dyDescent="0.3">
@@ -34408,7 +34402,7 @@
         <v>100</v>
       </c>
       <c r="K967" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="968" spans="1:11" x14ac:dyDescent="0.3">
@@ -34443,7 +34437,7 @@
         <v>100</v>
       </c>
       <c r="K968" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="969" spans="1:11" x14ac:dyDescent="0.3">
@@ -34478,7 +34472,7 @@
         <v>100</v>
       </c>
       <c r="K969" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="970" spans="1:11" x14ac:dyDescent="0.3">
@@ -34513,7 +34507,7 @@
         <v>100</v>
       </c>
       <c r="K970" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="971" spans="1:11" x14ac:dyDescent="0.3">
@@ -34548,7 +34542,7 @@
         <v>100</v>
       </c>
       <c r="K971" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="972" spans="1:11" x14ac:dyDescent="0.3">
@@ -34583,7 +34577,7 @@
         <v>100</v>
       </c>
       <c r="K972" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="973" spans="1:11" x14ac:dyDescent="0.3">
@@ -34618,7 +34612,7 @@
         <v>100</v>
       </c>
       <c r="K973" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="974" spans="1:11" x14ac:dyDescent="0.3">
@@ -34653,7 +34647,7 @@
         <v>100</v>
       </c>
       <c r="K974" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="975" spans="1:11" x14ac:dyDescent="0.3">
@@ -34688,7 +34682,7 @@
         <v>100</v>
       </c>
       <c r="K975" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="976" spans="1:11" x14ac:dyDescent="0.3">
@@ -34723,7 +34717,7 @@
         <v>100</v>
       </c>
       <c r="K976" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="977" spans="1:11" x14ac:dyDescent="0.3">
@@ -34758,7 +34752,7 @@
         <v>200</v>
       </c>
       <c r="K977" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="978" spans="1:11" x14ac:dyDescent="0.3">
@@ -34793,7 +34787,7 @@
         <v>200</v>
       </c>
       <c r="K978" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="979" spans="1:11" x14ac:dyDescent="0.3">
@@ -34828,7 +34822,7 @@
         <v>200</v>
       </c>
       <c r="K979" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="980" spans="1:11" x14ac:dyDescent="0.3">
@@ -34863,7 +34857,7 @@
         <v>200</v>
       </c>
       <c r="K980" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="981" spans="1:11" x14ac:dyDescent="0.3">
@@ -34898,7 +34892,7 @@
         <v>200</v>
       </c>
       <c r="K981" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="982" spans="1:11" x14ac:dyDescent="0.3">
@@ -34933,7 +34927,7 @@
         <v>200</v>
       </c>
       <c r="K982" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="983" spans="1:11" x14ac:dyDescent="0.3">
@@ -34968,7 +34962,7 @@
         <v>200</v>
       </c>
       <c r="K983" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="984" spans="1:11" x14ac:dyDescent="0.3">
@@ -35003,7 +34997,7 @@
         <v>200</v>
       </c>
       <c r="K984" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="985" spans="1:11" x14ac:dyDescent="0.3">
@@ -35038,7 +35032,7 @@
         <v>200</v>
       </c>
       <c r="K985" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="986" spans="1:11" x14ac:dyDescent="0.3">
@@ -35073,7 +35067,7 @@
         <v>200</v>
       </c>
       <c r="K986" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="987" spans="1:11" x14ac:dyDescent="0.3">
@@ -35108,7 +35102,7 @@
         <v>200</v>
       </c>
       <c r="K987" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="988" spans="1:11" x14ac:dyDescent="0.3">
@@ -35143,7 +35137,7 @@
         <v>200</v>
       </c>
       <c r="K988" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="989" spans="1:11" x14ac:dyDescent="0.3">
@@ -35178,7 +35172,7 @@
         <v>200</v>
       </c>
       <c r="K989" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="990" spans="1:11" x14ac:dyDescent="0.3">
@@ -35213,7 +35207,7 @@
         <v>200</v>
       </c>
       <c r="K990" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="991" spans="1:11" x14ac:dyDescent="0.3">
@@ -35248,7 +35242,7 @@
         <v>200</v>
       </c>
       <c r="K991" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="992" spans="1:11" x14ac:dyDescent="0.3">
@@ -35283,7 +35277,7 @@
         <v>200</v>
       </c>
       <c r="K992" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="993" spans="1:11" x14ac:dyDescent="0.3">
@@ -35318,7 +35312,7 @@
         <v>200</v>
       </c>
       <c r="K993" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="994" spans="1:11" x14ac:dyDescent="0.3">
@@ -35353,7 +35347,7 @@
         <v>200</v>
       </c>
       <c r="K994" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="995" spans="1:11" x14ac:dyDescent="0.3">
@@ -35388,7 +35382,7 @@
         <v>200</v>
       </c>
       <c r="K995" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="996" spans="1:11" x14ac:dyDescent="0.3">
@@ -35423,7 +35417,7 @@
         <v>200</v>
       </c>
       <c r="K996" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="997" spans="1:11" x14ac:dyDescent="0.3">
@@ -35458,7 +35452,7 @@
         <v>300</v>
       </c>
       <c r="K997" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="998" spans="1:11" x14ac:dyDescent="0.3">
@@ -35493,7 +35487,7 @@
         <v>300</v>
       </c>
       <c r="K998" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="999" spans="1:11" x14ac:dyDescent="0.3">
@@ -35528,7 +35522,7 @@
         <v>300</v>
       </c>
       <c r="K999" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1000" spans="1:11" x14ac:dyDescent="0.3">
@@ -35563,7 +35557,7 @@
         <v>300</v>
       </c>
       <c r="K1000" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1001" spans="1:11" x14ac:dyDescent="0.3">
@@ -35598,7 +35592,7 @@
         <v>300</v>
       </c>
       <c r="K1001" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1002" spans="1:11" x14ac:dyDescent="0.3">
@@ -35633,7 +35627,7 @@
         <v>300</v>
       </c>
       <c r="K1002" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1003" spans="1:11" x14ac:dyDescent="0.3">
@@ -35668,7 +35662,7 @@
         <v>300</v>
       </c>
       <c r="K1003" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1004" spans="1:11" x14ac:dyDescent="0.3">
@@ -35703,7 +35697,7 @@
         <v>300</v>
       </c>
       <c r="K1004" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1005" spans="1:11" x14ac:dyDescent="0.3">
@@ -35738,7 +35732,7 @@
         <v>300</v>
       </c>
       <c r="K1005" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1006" spans="1:11" x14ac:dyDescent="0.3">
@@ -35773,7 +35767,7 @@
         <v>300</v>
       </c>
       <c r="K1006" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1007" spans="1:11" x14ac:dyDescent="0.3">
@@ -35808,7 +35802,7 @@
         <v>300</v>
       </c>
       <c r="K1007" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1008" spans="1:11" x14ac:dyDescent="0.3">
@@ -35843,7 +35837,7 @@
         <v>300</v>
       </c>
       <c r="K1008" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1009" spans="1:11" x14ac:dyDescent="0.3">
@@ -35878,7 +35872,7 @@
         <v>300</v>
       </c>
       <c r="K1009" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1010" spans="1:11" x14ac:dyDescent="0.3">
@@ -35913,7 +35907,7 @@
         <v>300</v>
       </c>
       <c r="K1010" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1011" spans="1:11" x14ac:dyDescent="0.3">
@@ -35948,7 +35942,7 @@
         <v>300</v>
       </c>
       <c r="K1011" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1012" spans="1:11" x14ac:dyDescent="0.3">
@@ -35983,7 +35977,7 @@
         <v>300</v>
       </c>
       <c r="K1012" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1013" spans="1:11" x14ac:dyDescent="0.3">
@@ -36018,7 +36012,7 @@
         <v>300</v>
       </c>
       <c r="K1013" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1014" spans="1:11" x14ac:dyDescent="0.3">
@@ -36053,7 +36047,7 @@
         <v>300</v>
       </c>
       <c r="K1014" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1015" spans="1:11" x14ac:dyDescent="0.3">
@@ -36088,7 +36082,7 @@
         <v>300</v>
       </c>
       <c r="K1015" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1016" spans="1:11" x14ac:dyDescent="0.3">
@@ -36123,7 +36117,7 @@
         <v>300</v>
       </c>
       <c r="K1016" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1017" spans="1:11" x14ac:dyDescent="0.3">
@@ -36158,7 +36152,7 @@
         <v>400</v>
       </c>
       <c r="K1017" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1018" spans="1:11" x14ac:dyDescent="0.3">
@@ -36193,7 +36187,7 @@
         <v>400</v>
       </c>
       <c r="K1018" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1019" spans="1:11" x14ac:dyDescent="0.3">
@@ -36228,7 +36222,7 @@
         <v>400</v>
       </c>
       <c r="K1019" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1020" spans="1:11" x14ac:dyDescent="0.3">
@@ -36263,7 +36257,7 @@
         <v>400</v>
       </c>
       <c r="K1020" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1021" spans="1:11" x14ac:dyDescent="0.3">
@@ -36298,7 +36292,7 @@
         <v>400</v>
       </c>
       <c r="K1021" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1022" spans="1:11" x14ac:dyDescent="0.3">
@@ -36333,7 +36327,7 @@
         <v>400</v>
       </c>
       <c r="K1022" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1023" spans="1:11" x14ac:dyDescent="0.3">
@@ -36368,7 +36362,7 @@
         <v>400</v>
       </c>
       <c r="K1023" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1024" spans="1:11" x14ac:dyDescent="0.3">
@@ -36403,7 +36397,7 @@
         <v>400</v>
       </c>
       <c r="K1024" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1025" spans="1:11" x14ac:dyDescent="0.3">
@@ -36438,7 +36432,7 @@
         <v>400</v>
       </c>
       <c r="K1025" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1026" spans="1:11" x14ac:dyDescent="0.3">
@@ -36473,7 +36467,7 @@
         <v>400</v>
       </c>
       <c r="K1026" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1027" spans="1:11" x14ac:dyDescent="0.3">
@@ -36508,7 +36502,7 @@
         <v>400</v>
       </c>
       <c r="K1027" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1028" spans="1:11" x14ac:dyDescent="0.3">
@@ -36543,7 +36537,7 @@
         <v>400</v>
       </c>
       <c r="K1028" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1029" spans="1:11" x14ac:dyDescent="0.3">
@@ -36578,7 +36572,7 @@
         <v>400</v>
       </c>
       <c r="K1029" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1030" spans="1:11" x14ac:dyDescent="0.3">
@@ -36613,7 +36607,7 @@
         <v>400</v>
       </c>
       <c r="K1030" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1031" spans="1:11" x14ac:dyDescent="0.3">
@@ -36648,7 +36642,7 @@
         <v>400</v>
       </c>
       <c r="K1031" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1032" spans="1:11" x14ac:dyDescent="0.3">
@@ -36683,7 +36677,7 @@
         <v>400</v>
       </c>
       <c r="K1032" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1033" spans="1:11" x14ac:dyDescent="0.3">
@@ -36718,7 +36712,7 @@
         <v>400</v>
       </c>
       <c r="K1033" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1034" spans="1:11" x14ac:dyDescent="0.3">
@@ -36753,7 +36747,7 @@
         <v>400</v>
       </c>
       <c r="K1034" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1035" spans="1:11" x14ac:dyDescent="0.3">
@@ -36788,7 +36782,7 @@
         <v>400</v>
       </c>
       <c r="K1035" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1036" spans="1:11" x14ac:dyDescent="0.3">
@@ -36823,7 +36817,7 @@
         <v>400</v>
       </c>
       <c r="K1036" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1037" spans="1:11" x14ac:dyDescent="0.3">
@@ -36858,7 +36852,7 @@
         <v>500</v>
       </c>
       <c r="K1037" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1038" spans="1:11" x14ac:dyDescent="0.3">
@@ -36893,7 +36887,7 @@
         <v>500</v>
       </c>
       <c r="K1038" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1039" spans="1:11" x14ac:dyDescent="0.3">
@@ -36928,7 +36922,7 @@
         <v>500</v>
       </c>
       <c r="K1039" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1040" spans="1:11" x14ac:dyDescent="0.3">
@@ -36963,7 +36957,7 @@
         <v>500</v>
       </c>
       <c r="K1040" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1041" spans="1:11" x14ac:dyDescent="0.3">
@@ -36998,7 +36992,7 @@
         <v>500</v>
       </c>
       <c r="K1041" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1042" spans="1:11" x14ac:dyDescent="0.3">
@@ -37033,7 +37027,7 @@
         <v>500</v>
       </c>
       <c r="K1042" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1043" spans="1:11" x14ac:dyDescent="0.3">
@@ -37068,7 +37062,7 @@
         <v>500</v>
       </c>
       <c r="K1043" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1044" spans="1:11" x14ac:dyDescent="0.3">
@@ -37103,7 +37097,7 @@
         <v>500</v>
       </c>
       <c r="K1044" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1045" spans="1:11" x14ac:dyDescent="0.3">
@@ -37138,7 +37132,7 @@
         <v>500</v>
       </c>
       <c r="K1045" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1046" spans="1:11" x14ac:dyDescent="0.3">
@@ -37173,7 +37167,7 @@
         <v>500</v>
       </c>
       <c r="K1046" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1047" spans="1:11" x14ac:dyDescent="0.3">
@@ -37208,7 +37202,7 @@
         <v>500</v>
       </c>
       <c r="K1047" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1048" spans="1:11" x14ac:dyDescent="0.3">
@@ -37243,7 +37237,7 @@
         <v>500</v>
       </c>
       <c r="K1048" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1049" spans="1:11" x14ac:dyDescent="0.3">
@@ -37278,7 +37272,7 @@
         <v>500</v>
       </c>
       <c r="K1049" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1050" spans="1:11" x14ac:dyDescent="0.3">
@@ -37313,7 +37307,7 @@
         <v>500</v>
       </c>
       <c r="K1050" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1051" spans="1:11" x14ac:dyDescent="0.3">
@@ -37348,7 +37342,7 @@
         <v>500</v>
       </c>
       <c r="K1051" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1052" spans="1:11" x14ac:dyDescent="0.3">
@@ -37383,7 +37377,7 @@
         <v>500</v>
       </c>
       <c r="K1052" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1053" spans="1:11" x14ac:dyDescent="0.3">
@@ -37418,7 +37412,7 @@
         <v>500</v>
       </c>
       <c r="K1053" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1054" spans="1:11" x14ac:dyDescent="0.3">
@@ -37453,7 +37447,7 @@
         <v>500</v>
       </c>
       <c r="K1054" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1055" spans="1:11" x14ac:dyDescent="0.3">
@@ -37488,7 +37482,7 @@
         <v>500</v>
       </c>
       <c r="K1055" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1056" spans="1:11" x14ac:dyDescent="0.3">
@@ -37523,7 +37517,7 @@
         <v>500</v>
       </c>
       <c r="K1056" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.3">

--- a/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenr\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30014DC-6EE7-4C62-A24B-A6731344EAC4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6EAD9B-9070-4F6B-B3F8-7116C8EC46BD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7668" activeTab="1" xr2:uid="{D283E0F8-1F52-4946-9F02-CCA289FF9208}"/>
   </bookViews>
@@ -518,10 +518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD319FC3-F5A0-442C-9F04-E5E568694E63}">
-  <dimension ref="A1:L1267"/>
+  <dimension ref="A1:L1041"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A942" sqref="A942:A1041"/>
+      <selection activeCell="A1058" sqref="A1058:A1267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37001,1056 +37001,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1058" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1058">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1059">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1060">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1061">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1062">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1063">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1064">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1065">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1066">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1067">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1068">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1069">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1070">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1071">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1072">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1073">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1074">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1075">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1076">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1077">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1078">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1079">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1080">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1081">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1082">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1083">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1084">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1085">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1086">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1087">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1088">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1089">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1090">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1091">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1092">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1093">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1094">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1095">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="1096" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1096">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="1097" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1097">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1098">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1099">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="1100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1100">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1101">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="1102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1102">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1103">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1104">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="1105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1105">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1106">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1107">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1108">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1109">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1110">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1111">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1112">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1113">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1114">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1115">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1116">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1117">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1118">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1119">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1120">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1121">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1122">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1123">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1124">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1125">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1126">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1127">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1128">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1129">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1130">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1131">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1132">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1133">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1134">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1135">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1136">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1137">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1138">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1139">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1140">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1141">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="1142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1142">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1143">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1144">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="1145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1145">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1146">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1147">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="1148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1148">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1149">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="1150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1150">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="1151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1151">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1152">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="1153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1153">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="1154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1154">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="1155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1155">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1156">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="1157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1157">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="1158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1158">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1159">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="1160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1160">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="1161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1161">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="1162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1162">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="1163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1163">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="1164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1164">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1165">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1166">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1167">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1168">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1169">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1170">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1171">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1172">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1173">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1174">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="1175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1175">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="1176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1176">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1177">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1178">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1179">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1180">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1181">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1182">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="1183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1183">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1184">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1185">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="1186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1186">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1187">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="1188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1188">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1189">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="1190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1190">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1191">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1192">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="1193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1193">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="1194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1194">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="1195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1195">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="1196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1196">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1197">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1198">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1199">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1200">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="1201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1201">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="1202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1202">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1203">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1204">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1205">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1206">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1207">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1208">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1209">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1210">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="1211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1211">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="1212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1212">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="1213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1213">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="1214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1214">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="1215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1215">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="1216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1216">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1217">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="1218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1218">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1219">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="1220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1220">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="1221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1221">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="1222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1222">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="1223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1223">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1224">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1225">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="1226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1226">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="1227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1227">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="1228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1228">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1229">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1230">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1231">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="1232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1232">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1233">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1234">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1235">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="1236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1236">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="1237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1237">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="1238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1238">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="1239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1239">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="1240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1240">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1241">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="1242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1242">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1243">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1244">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="1245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1245">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="1246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1246">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="1247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1247">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1248">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1249">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="1250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1250">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="1251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1251">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1252">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1253">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1254">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="1255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1255">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1256">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1257">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1258">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1259">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1260">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1261">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="1262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1262">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="1263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1263">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="1264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1264">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1265">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1266">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1267">
-        <v>1266</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
